--- a/results.xlsx
+++ b/results.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2664B22-C464-450A-9A94-6586B5B52EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3511908D-4569-4FD4-B737-C3D462FAE4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results initial" sheetId="5" r:id="rId1"/>
     <sheet name="Results processors" sheetId="6" r:id="rId2"/>
     <sheet name="Results ngrams" sheetId="7" r:id="rId3"/>
     <sheet name="Results annot" sheetId="10" r:id="rId4"/>
-    <sheet name="Comparativa Modelos" sheetId="9" r:id="rId5"/>
+    <sheet name="Model Comparison" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="120">
   <si>
     <t>Locale</t>
   </si>
@@ -357,30 +357,15 @@
     <t>RASA</t>
   </si>
   <si>
-    <t>neural utt</t>
-  </si>
-  <si>
     <t>XLM-R</t>
   </si>
   <si>
-    <t>neural utt processor</t>
-  </si>
-  <si>
-    <t>neural utt ngrams</t>
-  </si>
-  <si>
-    <t>neural annot ngrams</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
     <t>TPS</t>
   </si>
   <si>
-    <t>Accuracy Español</t>
-  </si>
-  <si>
     <t>mT5 T2T</t>
   </si>
   <si>
@@ -400,6 +385,12 @@
   </si>
   <si>
     <t>Neural 4</t>
+  </si>
+  <si>
+    <t>Accuracy Spanish</t>
+  </si>
+  <si>
+    <t>neural 1</t>
   </si>
 </sst>
 </file>
@@ -516,22 +507,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -704,6 +679,22 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -868,8 +859,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comparación modelos</a:t>
+              <a:t>Model</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -914,7 +910,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparativa Modelos'!$E$3</c:f>
+              <c:f>'Model Comparison'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -992,7 +988,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Comparativa Modelos'!$C$4:$C$11</c:f>
+              <c:f>'Model Comparison'!$C$4:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1024,7 +1020,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparativa Modelos'!$E$4:$E$11</c:f>
+              <c:f>'Model Comparison'!$E$4:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1066,11 +1062,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparativa Modelos'!$F$3</c:f>
+              <c:f>'Model Comparison'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy Español</c:v>
+                  <c:v>Accuracy Spanish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1144,7 +1140,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Comparativa Modelos'!$C$4:$C$11</c:f>
+              <c:f>'Model Comparison'!$C$4:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1176,7 +1172,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparativa Modelos'!$F$4:$F$11</c:f>
+              <c:f>'Model Comparison'!$F$4:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1233,7 +1229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparativa Modelos'!$D$3</c:f>
+              <c:f>'Model Comparison'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1256,7 +1252,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Comparativa Modelos'!$C$4:$C$11</c:f>
+              <c:f>'Model Comparison'!$C$4:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1288,7 +1284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparativa Modelos'!$D$4:$D$11</c:f>
+              <c:f>'Model Comparison'!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1312,9 +1308,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>40446</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2170,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E143A7E2-AF62-4A62-BD13-A7DCC081AB22}" name="Tabla1347" displayName="Tabla1347" ref="C3:I55" totalsRowCount="1" dataDxfId="37">
   <autoFilter ref="C3:I54" xr:uid="{26F59702-BA45-4BEC-B340-1920DFEA3BA4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:I54">
-    <sortCondition ref="C3:C54"/>
+    <sortCondition ref="I3:I54"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{10B39170-861B-44FD-A275-278DCD1CBC77}" name="Locale" dataDxfId="36"/>
@@ -2194,8 +2187,8 @@
     <tableColumn id="15" xr3:uid="{8F1AF364-29C1-41B5-BFA1-59F48891412A}" name="RASA" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>AVERAGE(Tabla1347[RASA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{EE52270F-5795-4E36-B2CA-32341DB59C5C}" name="neural utt" totalsRowFunction="custom" dataDxfId="30">
-      <totalsRowFormula>AVERAGE(Tabla1347[neural utt])</totalsRowFormula>
+    <tableColumn id="10" xr3:uid="{EE52270F-5795-4E36-B2CA-32341DB59C5C}" name="neural 1" totalsRowFunction="custom" dataDxfId="30">
+      <totalsRowFormula>AVERAGE(Tabla1347[neural 1])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2203,10 +2196,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3BA544E9-3C6B-4599-9F3C-C791AACCFFDC}" name="Tabla13478" displayName="Tabla13478" ref="A3:H55" totalsRowCount="1" dataDxfId="29">
-  <autoFilter ref="A3:H54" xr:uid="{26F59702-BA45-4BEC-B340-1920DFEA3BA4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H54">
-    <sortCondition ref="A3:A54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3BA544E9-3C6B-4599-9F3C-C791AACCFFDC}" name="Tabla13478" displayName="Tabla13478" ref="C3:J55" totalsRowCount="1" dataDxfId="29">
+  <autoFilter ref="C3:J54" xr:uid="{26F59702-BA45-4BEC-B340-1920DFEA3BA4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:J54">
+    <sortCondition ref="C3:C54"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F48CC60C-43EA-4DFD-8D68-FDFF600C9DE0}" name="Locale" dataDxfId="28"/>
@@ -2223,11 +2216,11 @@
     <tableColumn id="15" xr3:uid="{9A4A9A08-73EF-4A36-A851-A58AFACD0575}" name="RASA" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>AVERAGE(Tabla13478[RASA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AEE8A757-BFEC-4CF3-9EB7-35EED63FC85E}" name="neural utt" totalsRowFunction="custom" dataDxfId="1">
-      <totalsRowFormula>AVERAGE(Tabla13478[neural utt])</totalsRowFormula>
+    <tableColumn id="16" xr3:uid="{AEE8A757-BFEC-4CF3-9EB7-35EED63FC85E}" name="Neural 1" totalsRowFunction="custom" dataDxfId="22">
+      <totalsRowFormula>AVERAGE(Tabla13478[Neural 1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BCF50629-AA81-42DC-B412-BC314C42835F}" name="neural utt processor" totalsRowFunction="custom" dataDxfId="0">
-      <totalsRowFormula>AVERAGE(Tabla13478[neural utt processor])</totalsRowFormula>
+    <tableColumn id="10" xr3:uid="{BCF50629-AA81-42DC-B412-BC314C42835F}" name="Neural 2" totalsRowFunction="custom" dataDxfId="21">
+      <totalsRowFormula>AVERAGE(Tabla13478[Neural 2])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2235,34 +2228,34 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3969CD8-4271-42DE-B9A8-8CDD3DCBE80D}" name="Tabla134789" displayName="Tabla134789" ref="A3:I55" totalsRowCount="1" dataDxfId="22">
-  <autoFilter ref="A3:I54" xr:uid="{26F59702-BA45-4BEC-B340-1920DFEA3BA4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I54">
-    <sortCondition ref="A3:A54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3969CD8-4271-42DE-B9A8-8CDD3DCBE80D}" name="Tabla134789" displayName="Tabla134789" ref="C3:K55" totalsRowCount="1" dataDxfId="20">
+  <autoFilter ref="C3:K54" xr:uid="{26F59702-BA45-4BEC-B340-1920DFEA3BA4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:K54">
+    <sortCondition ref="C3:C54"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5CACA5B9-3EA1-430E-A361-37FEA095074C}" name="Locale" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{134406F1-30E5-4C2A-A082-839D4766163F}" name="Language" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{6EF359FF-D1E7-4A25-9CB3-669FE37FC079}" name="XLM-R Full" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{5CACA5B9-3EA1-430E-A361-37FEA095074C}" name="Locale" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{134406F1-30E5-4C2A-A082-839D4766163F}" name="Language" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{6EF359FF-D1E7-4A25-9CB3-669FE37FC079}" name="XLM-R Full" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>AVERAGE(Tabla134789[XLM-R Full])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B3783B73-8761-4986-99F7-3C6E4D62C347}" name="mT5 T2T Full" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{B3783B73-8761-4986-99F7-3C6E4D62C347}" name="mT5 T2T Full" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>AVERAGE(Tabla134789[mT5 T2T Full])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{24F722D2-494D-430A-8133-B6FEEB24C3CA}" name="mT5 Enc Full" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{24F722D2-494D-430A-8133-B6FEEB24C3CA}" name="mT5 Enc Full" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>AVERAGE(Tabla134789[mT5 Enc Full])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{CD4240CD-048D-45F5-9FFD-BBBA689D35F1}" name="RASA" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="15" xr3:uid="{CD4240CD-048D-45F5-9FFD-BBBA689D35F1}" name="RASA" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>AVERAGE(Tabla134789[RASA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{7080BE39-2FEC-4256-B544-76B51CFC7997}" name="neural utt" totalsRowFunction="custom" dataDxfId="15">
-      <totalsRowFormula>AVERAGE(Tabla134789[neural utt])</totalsRowFormula>
+    <tableColumn id="16" xr3:uid="{7080BE39-2FEC-4256-B544-76B51CFC7997}" name="Neural 1" totalsRowFunction="custom" dataDxfId="13">
+      <totalsRowFormula>AVERAGE(Tabla134789[Neural 1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5BB8496F-94FC-4C2E-A34A-E90BF9EFE2C9}" name="neural utt processor" totalsRowFunction="custom" dataDxfId="14">
-      <totalsRowFormula>AVERAGE(Tabla134789[neural utt processor])</totalsRowFormula>
+    <tableColumn id="10" xr3:uid="{5BB8496F-94FC-4C2E-A34A-E90BF9EFE2C9}" name="Neural 2" totalsRowFunction="custom" dataDxfId="12">
+      <totalsRowFormula>AVERAGE(Tabla134789[Neural 2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{C2536EB8-6884-4A64-8C1D-CAF7DC491D07}" name="neural utt ngrams" totalsRowFunction="custom" dataDxfId="13">
-      <totalsRowFormula>AVERAGE(Tabla134789[neural utt ngrams])</totalsRowFormula>
+    <tableColumn id="18" xr3:uid="{C2536EB8-6884-4A64-8C1D-CAF7DC491D07}" name="Neural 3" totalsRowFunction="custom" dataDxfId="11">
+      <totalsRowFormula>AVERAGE(Tabla134789[Neural 3])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2270,37 +2263,37 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94758735-3069-42EB-8DA4-49497CD0A915}" name="Tabla1347892" displayName="Tabla1347892" ref="A3:J55" totalsRowCount="1" dataDxfId="12">
-  <autoFilter ref="A3:J54" xr:uid="{26F59702-BA45-4BEC-B340-1920DFEA3BA4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J54">
-    <sortCondition ref="A3:A54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94758735-3069-42EB-8DA4-49497CD0A915}" name="Tabla1347892" displayName="Tabla1347892" ref="C3:L55" totalsRowCount="1" dataDxfId="10">
+  <autoFilter ref="C3:L54" xr:uid="{26F59702-BA45-4BEC-B340-1920DFEA3BA4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:L54">
+    <sortCondition ref="C3:C54"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AB22A87F-94F9-42E2-844F-ABF582E106DF}" name="Locale" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{1679374C-0E1F-45BD-A2D0-5454299C6AC0}" name="Language" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EE963B96-C1DE-46C4-93FF-BB481E493EF1}" name="XLM-R Full" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{AB22A87F-94F9-42E2-844F-ABF582E106DF}" name="Locale" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{1679374C-0E1F-45BD-A2D0-5454299C6AC0}" name="Language" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EE963B96-C1DE-46C4-93FF-BB481E493EF1}" name="XLM-R Full" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>AVERAGE(Tabla1347892[XLM-R Full])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AE62A70D-2BE1-4CFE-9088-B0E6743632C7}" name="mT5 T2T Full" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{AE62A70D-2BE1-4CFE-9088-B0E6743632C7}" name="mT5 T2T Full" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>AVERAGE(Tabla1347892[mT5 T2T Full])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F8BC86F4-1B39-40B4-9B88-E4276271A46A}" name="mT5 Enc Full" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{F8BC86F4-1B39-40B4-9B88-E4276271A46A}" name="mT5 Enc Full" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>AVERAGE(Tabla1347892[mT5 Enc Full])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0F8D135A-8DAA-431A-A687-25E461FC6E62}" name="RASA" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{0F8D135A-8DAA-431A-A687-25E461FC6E62}" name="RASA" totalsRowFunction="custom" dataDxfId="4">
       <totalsRowFormula>AVERAGE(Tabla1347892[RASA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{871C94A0-1E73-4DB9-AD28-EA0085424FCC}" name="neural utt" totalsRowFunction="custom" dataDxfId="5">
-      <totalsRowFormula>AVERAGE(Tabla1347892[neural utt])</totalsRowFormula>
+    <tableColumn id="16" xr3:uid="{871C94A0-1E73-4DB9-AD28-EA0085424FCC}" name="Neural 1" totalsRowFunction="custom" dataDxfId="3">
+      <totalsRowFormula>AVERAGE(Tabla1347892[Neural 1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{85B87053-ED1B-4531-9F26-D91E5132478F}" name="neural utt processor" totalsRowFunction="custom" dataDxfId="4">
-      <totalsRowFormula>AVERAGE(Tabla1347892[neural utt processor])</totalsRowFormula>
+    <tableColumn id="10" xr3:uid="{85B87053-ED1B-4531-9F26-D91E5132478F}" name="Neural 2" totalsRowFunction="custom" dataDxfId="2">
+      <totalsRowFormula>AVERAGE(Tabla1347892[Neural 2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{9136264F-0B25-49D5-A46D-B57637786382}" name="neural utt ngrams" totalsRowFunction="custom" dataDxfId="3">
-      <totalsRowFormula>AVERAGE(Tabla1347892[neural utt ngrams])</totalsRowFormula>
+    <tableColumn id="18" xr3:uid="{9136264F-0B25-49D5-A46D-B57637786382}" name="Neural 3" totalsRowFunction="custom" dataDxfId="1">
+      <totalsRowFormula>AVERAGE(Tabla1347892[Neural 3])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B895BB71-94F3-47EB-9F7C-DC68C747E568}" name="neural annot ngrams" totalsRowFunction="custom" dataDxfId="2">
-      <totalsRowFormula>AVERAGE(Tabla1347892[neural annot ngrams])</totalsRowFormula>
+    <tableColumn id="6" xr3:uid="{B895BB71-94F3-47EB-9F7C-DC68C747E568}" name="Neural 4" totalsRowFunction="custom" dataDxfId="0">
+      <totalsRowFormula>AVERAGE(Tabla1347892[Neural 4])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2314,7 +2307,7 @@
     <tableColumn id="1" xr3:uid="{12F3B977-120C-4B77-9B2A-D9D919FE6F3C}" name="Modelo"/>
     <tableColumn id="2" xr3:uid="{E2DA58EE-C338-45A7-A494-5DB2F9C8872C}" name="TPS"/>
     <tableColumn id="3" xr3:uid="{ACC0EDD4-D8CD-416F-835D-6F668341E61A}" name="Accuracy"/>
-    <tableColumn id="4" xr3:uid="{7E3F1FBD-5FB6-4390-9448-C957807AC6CE}" name="Accuracy Español"/>
+    <tableColumn id="4" xr3:uid="{7E3F1FBD-5FB6-4390-9448-C957807AC6CE}" name="Accuracy Spanish"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2644,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ADACD1-A939-49E0-888A-85B98F399AD0}">
   <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2678,834 +2671,834 @@
         <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3">
-        <v>85.6</v>
+        <v>84.9</v>
       </c>
       <c r="F4" s="3">
-        <v>86</v>
+        <v>85.2</v>
       </c>
       <c r="G4" s="3">
-        <v>86.9</v>
+        <v>85.8</v>
       </c>
       <c r="H4" s="7">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="I4" s="12">
-        <v>80.900000000000006</v>
+        <v>74</v>
+      </c>
+      <c r="I4" s="6">
+        <v>7.8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3">
-        <v>81.7</v>
+        <v>83.9</v>
       </c>
       <c r="F5" s="3">
-        <v>82.7</v>
+        <v>83.5</v>
       </c>
       <c r="G5" s="3">
-        <v>84.2</v>
+        <v>85.8</v>
       </c>
       <c r="H5" s="7">
-        <v>82</v>
-      </c>
-      <c r="I5" s="12">
-        <v>77.400000000000006</v>
+        <v>79.5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>10.4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3">
-        <v>80.7</v>
+        <v>83</v>
       </c>
       <c r="F6" s="3">
-        <v>81.8</v>
+        <v>82.9</v>
       </c>
       <c r="G6" s="3">
-        <v>82.2</v>
+        <v>83.8</v>
       </c>
       <c r="H6" s="7">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="I6" s="2">
-        <v>76</v>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="I6" s="6">
+        <v>14.8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3">
-        <v>86.2</v>
+        <v>77.2</v>
       </c>
       <c r="F7" s="3">
-        <v>86.2</v>
+        <v>79</v>
       </c>
       <c r="G7" s="3">
-        <v>86.4</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="H7" s="7">
-        <v>81.3</v>
-      </c>
-      <c r="I7" s="12">
-        <v>79.900000000000006</v>
+        <v>79.7</v>
+      </c>
+      <c r="I7" s="6">
+        <v>55.6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>84.1</v>
+        <v>84.7</v>
       </c>
       <c r="F8" s="3">
-        <v>84.8</v>
+        <v>85.2</v>
       </c>
       <c r="G8" s="3">
-        <v>85.8</v>
+        <v>85.5</v>
       </c>
       <c r="H8" s="7">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="I8" s="12">
-        <v>78.900000000000006</v>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="I8" s="6">
+        <v>61.8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E9" s="3">
-        <v>82.6</v>
+        <v>83.6</v>
       </c>
       <c r="F9" s="3">
-        <v>83.7</v>
+        <v>84.6</v>
       </c>
       <c r="G9" s="3">
-        <v>84.9</v>
+        <v>85.2</v>
       </c>
       <c r="H9" s="7">
-        <v>81.7</v>
-      </c>
-      <c r="I9" s="12">
-        <v>81.099999999999994</v>
+        <v>77.7</v>
+      </c>
+      <c r="I9" s="6">
+        <v>62.2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3">
-        <v>86.9</v>
+        <v>80.3</v>
       </c>
       <c r="F10" s="3">
-        <v>87.5</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="G10" s="3">
-        <v>88</v>
+        <v>81.3</v>
       </c>
       <c r="H10" s="7">
-        <v>81</v>
+        <v>81.7</v>
       </c>
       <c r="I10" s="12">
-        <v>80.900000000000006</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3">
-        <v>85.7</v>
+        <v>80.7</v>
       </c>
       <c r="F11" s="3">
-        <v>86.2</v>
+        <v>81.8</v>
       </c>
       <c r="G11" s="3">
-        <v>86.8</v>
+        <v>82.2</v>
       </c>
       <c r="H11" s="7">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="I11" s="12">
-        <v>79.2</v>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I11" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3">
-        <v>86.2</v>
+        <v>83.5</v>
       </c>
       <c r="F12" s="3">
-        <v>85.8</v>
+        <v>84.4</v>
       </c>
       <c r="G12" s="3">
-        <v>86.6</v>
+        <v>85.2</v>
       </c>
       <c r="H12" s="7">
-        <v>81.7</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="I12" s="12">
-        <v>80.3</v>
+        <v>76.400000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
-        <v>88.3</v>
+        <v>81.7</v>
       </c>
       <c r="F13" s="3">
-        <v>87.9</v>
+        <v>82.7</v>
       </c>
       <c r="G13" s="3">
-        <v>89</v>
+        <v>84.2</v>
       </c>
       <c r="H13" s="7">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="I13" s="2">
-        <v>83.3</v>
+        <v>82</v>
+      </c>
+      <c r="I13" s="12">
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3">
-        <v>86.9</v>
+        <v>84</v>
       </c>
       <c r="F14" s="3">
-        <v>86.7</v>
+        <v>84.9</v>
       </c>
       <c r="G14" s="3">
-        <v>86.8</v>
+        <v>84.9</v>
       </c>
       <c r="H14" s="7">
-        <v>79.900000000000006</v>
+        <v>77.2</v>
       </c>
       <c r="I14" s="2">
-        <v>81.3</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E15" s="3">
-        <v>87</v>
+        <v>85.1</v>
       </c>
       <c r="F15" s="3">
-        <v>86.3</v>
+        <v>86</v>
       </c>
       <c r="G15" s="3">
-        <v>87.2</v>
+        <v>86.5</v>
       </c>
       <c r="H15" s="7">
-        <v>80.3</v>
-      </c>
-      <c r="I15" s="2">
-        <v>83</v>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="I15" s="12">
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E16" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="G16" s="3">
         <v>85.5</v>
       </c>
-      <c r="F16" s="3">
-        <v>85.3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>86.7</v>
-      </c>
       <c r="H16" s="7">
-        <v>80.2</v>
-      </c>
-      <c r="I16" s="12">
-        <v>78.099999999999994</v>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="I16" s="2">
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="F17" s="3">
-        <v>86.9</v>
+        <v>85.3</v>
       </c>
       <c r="G17" s="3">
-        <v>87.2</v>
+        <v>86.7</v>
       </c>
       <c r="H17" s="7">
-        <v>80.8</v>
-      </c>
-      <c r="I17" s="2">
-        <v>81.599999999999994</v>
+        <v>80.2</v>
+      </c>
+      <c r="I17" s="12">
+        <v>78.099999999999994</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3">
-        <v>85.9</v>
+        <v>86.2</v>
       </c>
       <c r="F18" s="3">
-        <v>84.6</v>
+        <v>85.4</v>
       </c>
       <c r="G18" s="3">
-        <v>86.2</v>
+        <v>86.9</v>
       </c>
       <c r="H18" s="7">
         <v>80.400000000000006</v>
       </c>
-      <c r="I18" s="2">
-        <v>81</v>
+      <c r="I18" s="12">
+        <v>78.5</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3">
+        <v>84.1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>84.8</v>
+      </c>
+      <c r="G19" s="3">
         <v>85.8</v>
       </c>
-      <c r="F19" s="3">
-        <v>85.6</v>
-      </c>
-      <c r="G19" s="3">
-        <v>86.2</v>
-      </c>
       <c r="H19" s="7">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="I19" s="2">
-        <v>80.5</v>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="I19" s="12">
+        <v>78.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E20" s="3">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="F20" s="3">
-        <v>85.4</v>
+        <v>86.1</v>
       </c>
       <c r="G20" s="3">
-        <v>86.9</v>
+        <v>87.1</v>
       </c>
       <c r="H20" s="7">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="I20" s="12">
-        <v>78.5</v>
+        <v>75.7</v>
+      </c>
+      <c r="I20" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3">
-        <v>84.4</v>
+        <v>85.3</v>
       </c>
       <c r="F21" s="3">
-        <v>84.5</v>
+        <v>85.3</v>
       </c>
       <c r="G21" s="3">
-        <v>85.6</v>
+        <v>85.9</v>
       </c>
       <c r="H21" s="7">
-        <v>79.599999999999994</v>
+        <v>81</v>
       </c>
       <c r="I21" s="12">
-        <v>79.2</v>
+        <v>79.099999999999994</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3">
-        <v>87.1</v>
+        <v>85.7</v>
       </c>
       <c r="F22" s="3">
-        <v>87</v>
+        <v>86.2</v>
       </c>
       <c r="G22" s="3">
         <v>86.8</v>
       </c>
       <c r="H22" s="7">
-        <v>81</v>
-      </c>
-      <c r="I22" s="2">
-        <v>82.6</v>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="I22" s="12">
+        <v>79.2</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="3">
-        <v>85.3</v>
+        <v>84.4</v>
       </c>
       <c r="F23" s="3">
-        <v>85.3</v>
+        <v>84.5</v>
       </c>
       <c r="G23" s="3">
-        <v>85.9</v>
+        <v>85.6</v>
       </c>
       <c r="H23" s="7">
-        <v>81</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="I23" s="12">
-        <v>79.099999999999994</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E24" s="3">
-        <v>83.8</v>
+        <v>86.3</v>
       </c>
       <c r="F24" s="3">
-        <v>81.099999999999994</v>
+        <v>85.9</v>
       </c>
       <c r="G24" s="3">
-        <v>81.599999999999994</v>
+        <v>86.8</v>
       </c>
       <c r="H24" s="7">
-        <v>79.599999999999994</v>
+        <v>78.8</v>
       </c>
       <c r="I24" s="2">
-        <v>82.6</v>
+        <v>79.400000000000006</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E25" s="3">
-        <v>83.9</v>
+        <v>84.3</v>
       </c>
       <c r="F25" s="3">
-        <v>83.5</v>
+        <v>84.9</v>
       </c>
       <c r="G25" s="3">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
-        <v>79.5</v>
-      </c>
-      <c r="I25" s="6">
-        <v>10.4</v>
+        <v>79.8</v>
+      </c>
+      <c r="I25" s="12">
+        <v>79.599999999999994</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E26" s="3">
-        <v>82.9</v>
+        <v>87.3</v>
       </c>
       <c r="F26" s="3">
-        <v>84.5</v>
+        <v>87.6</v>
       </c>
       <c r="G26" s="3">
-        <v>85.3</v>
+        <v>87.7</v>
       </c>
       <c r="H26" s="7">
-        <v>79</v>
-      </c>
-      <c r="I26" s="2">
-        <v>80.900000000000006</v>
+        <v>82.1</v>
+      </c>
+      <c r="I26" s="12">
+        <v>79.599999999999994</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E27" s="3">
-        <v>80.3</v>
+        <v>86.5</v>
       </c>
       <c r="F27" s="3">
-        <v>79.900000000000006</v>
+        <v>86.1</v>
       </c>
       <c r="G27" s="3">
-        <v>81.3</v>
+        <v>86.4</v>
       </c>
       <c r="H27" s="7">
-        <v>81.7</v>
-      </c>
-      <c r="I27" s="12">
-        <v>74.2</v>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="I27" s="2">
+        <v>79.7</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E28" s="3">
-        <v>77.2</v>
+        <v>83.2</v>
       </c>
       <c r="F28" s="3">
-        <v>79</v>
+        <v>84.3</v>
       </c>
       <c r="G28" s="3">
-        <v>79.099999999999994</v>
+        <v>85.1</v>
       </c>
       <c r="H28" s="7">
-        <v>79.7</v>
-      </c>
-      <c r="I28" s="6">
-        <v>55.6</v>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I28" s="2">
+        <v>79.8</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E29" s="3">
-        <v>84</v>
+        <v>86.2</v>
       </c>
       <c r="F29" s="3">
-        <v>84.9</v>
+        <v>86.2</v>
       </c>
       <c r="G29" s="3">
-        <v>84.9</v>
+        <v>86.4</v>
       </c>
       <c r="H29" s="7">
-        <v>77.2</v>
-      </c>
-      <c r="I29" s="2">
-        <v>77.599999999999994</v>
+        <v>81.3</v>
+      </c>
+      <c r="I29" s="12">
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="3">
-        <v>86.5</v>
+        <v>86.1</v>
       </c>
       <c r="F30" s="3">
-        <v>86.1</v>
+        <v>85.2</v>
       </c>
       <c r="G30" s="3">
-        <v>86.4</v>
+        <v>86.6</v>
       </c>
       <c r="H30" s="7">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="I30" s="2">
-        <v>79.7</v>
+        <v>80.2</v>
+      </c>
+      <c r="I30" s="12">
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E31" s="3">
-        <v>86.1</v>
+        <v>86.3</v>
       </c>
       <c r="F31" s="3">
-        <v>85.2</v>
+        <v>85.8</v>
       </c>
       <c r="G31" s="3">
-        <v>86.6</v>
+        <v>87.2</v>
       </c>
       <c r="H31" s="7">
-        <v>80.2</v>
-      </c>
-      <c r="I31" s="12">
+        <v>77.3</v>
+      </c>
+      <c r="I31" s="2">
         <v>79.900000000000006</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E32" s="3">
-        <v>85.1</v>
+        <v>87.2</v>
       </c>
       <c r="F32" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" s="3">
-        <v>86.5</v>
+        <v>86.8</v>
       </c>
       <c r="H32" s="7">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="I32" s="12">
-        <v>77.599999999999994</v>
+        <v>80</v>
+      </c>
+      <c r="I32" s="2">
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3">
-        <v>84.3</v>
+        <v>86.2</v>
       </c>
       <c r="F33" s="3">
-        <v>84.9</v>
+        <v>85.8</v>
       </c>
       <c r="G33" s="3">
-        <v>86</v>
+        <v>86.6</v>
       </c>
       <c r="H33" s="7">
-        <v>79.8</v>
+        <v>81.7</v>
       </c>
       <c r="I33" s="12">
-        <v>79.599999999999994</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E34" s="3">
-        <v>86.1</v>
+        <v>85.8</v>
       </c>
       <c r="F34" s="3">
-        <v>86.8</v>
+        <v>85.6</v>
       </c>
       <c r="G34" s="3">
-        <v>86.9</v>
+        <v>86.2</v>
       </c>
       <c r="H34" s="7">
-        <v>80.900000000000006</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="I34" s="2">
-        <v>82.4</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E35" s="3">
-        <v>83.6</v>
+        <v>87.9</v>
       </c>
       <c r="F35" s="3">
-        <v>84.6</v>
+        <v>87.8</v>
       </c>
       <c r="G35" s="3">
-        <v>85.2</v>
+        <v>88.5</v>
       </c>
       <c r="H35" s="7">
-        <v>77.7</v>
-      </c>
-      <c r="I35" s="6">
-        <v>62.2</v>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="I35" s="2">
+        <v>80.8</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E36" s="3">
-        <v>87.3</v>
+        <v>83.1</v>
       </c>
       <c r="F36" s="3">
-        <v>87.6</v>
+        <v>84</v>
       </c>
       <c r="G36" s="3">
-        <v>87.7</v>
+        <v>85.8</v>
       </c>
       <c r="H36" s="7">
-        <v>82.1</v>
-      </c>
-      <c r="I36" s="12">
         <v>79.599999999999994</v>
+      </c>
+      <c r="I36" s="2">
+        <v>80.8</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="E37" s="3">
-        <v>86.8</v>
+        <v>85.6</v>
       </c>
       <c r="F37" s="3">
-        <v>87.2</v>
+        <v>86</v>
       </c>
       <c r="G37" s="3">
-        <v>87.6</v>
+        <v>86.9</v>
       </c>
       <c r="H37" s="7">
-        <v>80.8</v>
-      </c>
-      <c r="I37" s="2">
-        <v>81.900000000000006</v>
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I37" s="12">
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E38" s="3">
-        <v>85.8</v>
+        <v>86.9</v>
       </c>
       <c r="F38" s="3">
-        <v>86.3</v>
+        <v>87.5</v>
       </c>
       <c r="G38" s="3">
-        <v>87.1</v>
+        <v>88</v>
       </c>
       <c r="H38" s="7">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="I38" s="2">
         <v>81</v>
+      </c>
+      <c r="I38" s="12">
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E39" s="3">
-        <v>86.7</v>
+        <v>82.9</v>
       </c>
       <c r="F39" s="3">
-        <v>86.7</v>
+        <v>84.5</v>
       </c>
       <c r="G39" s="3">
-        <v>86.9</v>
+        <v>85.3</v>
       </c>
       <c r="H39" s="7">
-        <v>80.3</v>
+        <v>79</v>
       </c>
       <c r="I39" s="2">
         <v>80.900000000000006</v>
@@ -3513,357 +3506,357 @@
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="3">
+        <v>86.7</v>
+      </c>
+      <c r="F40" s="3">
+        <v>86.7</v>
+      </c>
+      <c r="G40" s="3">
         <v>86.9</v>
       </c>
-      <c r="F40" s="3">
-        <v>87.2</v>
-      </c>
-      <c r="G40" s="3">
-        <v>87</v>
-      </c>
       <c r="H40" s="7">
-        <v>81</v>
+        <v>80.3</v>
       </c>
       <c r="I40" s="2">
-        <v>81.400000000000006</v>
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E41" s="3">
-        <v>87.2</v>
+        <v>86.4</v>
       </c>
       <c r="F41" s="3">
-        <v>87</v>
+        <v>85.9</v>
       </c>
       <c r="G41" s="3">
-        <v>86.8</v>
+        <v>86.4</v>
       </c>
       <c r="H41" s="7">
-        <v>80</v>
+        <v>80.3</v>
       </c>
       <c r="I41" s="2">
-        <v>80.099999999999994</v>
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E42" s="3">
-        <v>86.3</v>
+        <v>85.9</v>
       </c>
       <c r="F42" s="3">
-        <v>85.9</v>
+        <v>84.6</v>
       </c>
       <c r="G42" s="3">
-        <v>86.8</v>
+        <v>86.2</v>
       </c>
       <c r="H42" s="7">
-        <v>78.8</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="I42" s="2">
-        <v>79.400000000000006</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C43" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E43" s="3">
-        <v>86.4</v>
+        <v>85.8</v>
       </c>
       <c r="F43" s="3">
-        <v>85.9</v>
+        <v>86.3</v>
       </c>
       <c r="G43" s="3">
-        <v>86.4</v>
+        <v>87.1</v>
       </c>
       <c r="H43" s="7">
-        <v>80.3</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="I43" s="2">
-        <v>80.900000000000006</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E44" s="3">
-        <v>87.9</v>
+        <v>82.6</v>
       </c>
       <c r="F44" s="3">
-        <v>87.8</v>
+        <v>83.7</v>
       </c>
       <c r="G44" s="3">
-        <v>88.5</v>
+        <v>84.9</v>
       </c>
       <c r="H44" s="7">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="I44" s="2">
-        <v>80.8</v>
+        <v>81.7</v>
+      </c>
+      <c r="I44" s="12">
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E45" s="3">
-        <v>83.1</v>
+        <v>86.9</v>
       </c>
       <c r="F45" s="3">
-        <v>84</v>
+        <v>86.7</v>
       </c>
       <c r="G45" s="3">
-        <v>85.8</v>
+        <v>86.8</v>
       </c>
       <c r="H45" s="7">
-        <v>79.599999999999994</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="I45" s="2">
-        <v>80.8</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C46" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E46" s="3">
-        <v>83.5</v>
+        <v>84.6</v>
       </c>
       <c r="F46" s="3">
-        <v>84.4</v>
+        <v>85.1</v>
       </c>
       <c r="G46" s="3">
-        <v>85.2</v>
+        <v>87</v>
       </c>
       <c r="H46" s="7">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="I46" s="12">
-        <v>76.400000000000006</v>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I46" s="2">
+        <v>81.3</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C47" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E47" s="3">
-        <v>84.5</v>
+        <v>86.9</v>
       </c>
       <c r="F47" s="3">
-        <v>84.9</v>
+        <v>87.2</v>
       </c>
       <c r="G47" s="3">
-        <v>85.5</v>
+        <v>87</v>
       </c>
       <c r="H47" s="7">
-        <v>77.400000000000006</v>
+        <v>81</v>
       </c>
       <c r="I47" s="2">
-        <v>77.900000000000006</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C48" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="E48" s="3">
-        <v>84.7</v>
+        <v>86.3</v>
       </c>
       <c r="F48" s="3">
-        <v>85.2</v>
+        <v>86.9</v>
       </c>
       <c r="G48" s="3">
-        <v>85.5</v>
+        <v>87.2</v>
       </c>
       <c r="H48" s="7">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="I48" s="6">
-        <v>61.8</v>
+        <v>80.8</v>
+      </c>
+      <c r="I48" s="2">
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C49" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E49" s="3">
-        <v>84.6</v>
+        <v>86.8</v>
       </c>
       <c r="F49" s="3">
-        <v>85.1</v>
+        <v>87.2</v>
       </c>
       <c r="G49" s="3">
-        <v>87</v>
+        <v>87.6</v>
       </c>
       <c r="H49" s="7">
-        <v>78.099999999999994</v>
+        <v>80.8</v>
       </c>
       <c r="I49" s="2">
-        <v>81.3</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C50" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E50" s="3">
-        <v>86.3</v>
+        <v>86.1</v>
       </c>
       <c r="F50" s="3">
-        <v>86.1</v>
+        <v>86.8</v>
       </c>
       <c r="G50" s="3">
-        <v>87.1</v>
+        <v>86.9</v>
       </c>
       <c r="H50" s="7">
-        <v>75.7</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="I50" s="2">
-        <v>79</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C51" s="3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E51" s="3">
-        <v>83.2</v>
+        <v>87.1</v>
       </c>
       <c r="F51" s="3">
-        <v>84.3</v>
+        <v>87</v>
       </c>
       <c r="G51" s="3">
-        <v>85.1</v>
+        <v>86.8</v>
       </c>
       <c r="H51" s="7">
-        <v>74.400000000000006</v>
+        <v>81</v>
       </c>
       <c r="I51" s="2">
-        <v>79.8</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C52" s="3" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E52" s="3">
-        <v>86.3</v>
+        <v>83.8</v>
       </c>
       <c r="F52" s="3">
-        <v>85.8</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="G52" s="3">
-        <v>87.2</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="H52" s="7">
-        <v>77.3</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="I52" s="2">
-        <v>79.900000000000006</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C53" s="3" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="E53" s="3">
-        <v>84.9</v>
+        <v>87</v>
       </c>
       <c r="F53" s="3">
-        <v>85.2</v>
+        <v>86.3</v>
       </c>
       <c r="G53" s="3">
-        <v>85.8</v>
+        <v>87.2</v>
       </c>
       <c r="H53" s="7">
-        <v>74</v>
-      </c>
-      <c r="I53" s="6">
-        <v>7.8</v>
+        <v>80.3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="E54" s="3">
-        <v>83</v>
+        <v>88.3</v>
       </c>
       <c r="F54" s="3">
-        <v>82.9</v>
+        <v>87.9</v>
       </c>
       <c r="G54" s="3">
-        <v>83.8</v>
+        <v>89</v>
       </c>
       <c r="H54" s="7">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="I54" s="6">
-        <v>14.8</v>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="I54" s="2">
+        <v>83.3</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E55">
         <f>AVERAGE(Tabla1347[XLM-R Full])</f>
-        <v>85.050980392156859</v>
+        <v>85.050980392156873</v>
       </c>
       <c r="F55">
         <f>AVERAGE(Tabla1347[mT5 T2T Full])</f>
-        <v>85.21960784313724</v>
+        <v>85.219607843137254</v>
       </c>
       <c r="G55">
         <f>AVERAGE(Tabla1347[mT5 Enc Full])</f>
@@ -3871,10 +3864,10 @@
       </c>
       <c r="H55">
         <f>AVERAGE(Tabla1347[RASA])</f>
-        <v>79.464705882352945</v>
+        <v>79.464705882352959</v>
       </c>
       <c r="I55">
-        <f>AVERAGE(Tabla1347[neural utt])</f>
+        <f>AVERAGE(Tabla1347[neural 1])</f>
         <v>74.725490196078454</v>
       </c>
     </row>
@@ -3889,11 +3882,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3CC8B-2657-49DF-89B1-F93B93B54AD9}">
-  <dimension ref="A3:H55"/>
+  <dimension ref="C3:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I48" sqref="I48"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3906,1381 +3899,1381 @@
     <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>107</v>
       </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="I3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>85.6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>86</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>86.9</v>
       </c>
-      <c r="F4" s="7">
+      <c r="H4" s="7">
         <v>81</v>
       </c>
-      <c r="G4" s="12">
+      <c r="I4" s="12">
         <v>80.900000000000006</v>
       </c>
-      <c r="H4" s="10">
+      <c r="J4" s="10">
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>81.7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>82.7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>84.2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="H5" s="7">
         <v>77.3</v>
       </c>
-      <c r="G5" s="12">
+      <c r="I5" s="12">
         <v>77.400000000000006</v>
       </c>
-      <c r="H5" s="13">
+      <c r="J5" s="13">
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="4">
+      <c r="E6" s="4">
         <v>80.7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="F6" s="4">
         <v>81.8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="4">
         <v>82.2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="H6" s="7">
         <v>74.400000000000006</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>76</v>
       </c>
-      <c r="H6" s="9">
+      <c r="J6" s="9">
         <v>76.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="5">
+      <c r="E7" s="5">
         <v>86.2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="F7" s="5">
         <v>86.2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>86.4</v>
       </c>
-      <c r="F7" s="7">
+      <c r="H7" s="7">
         <v>82.1</v>
       </c>
-      <c r="G7" s="12">
+      <c r="I7" s="12">
         <v>79.900000000000006</v>
       </c>
-      <c r="H7" s="10">
+      <c r="J7" s="10">
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>84.1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>84.8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>85.8</v>
       </c>
-      <c r="F8" s="7">
+      <c r="H8" s="7">
         <v>77.7</v>
       </c>
-      <c r="G8" s="12">
+      <c r="I8" s="12">
         <v>78.900000000000006</v>
       </c>
-      <c r="H8" s="9">
+      <c r="J8" s="9">
         <v>79.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>82.6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>83.7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>84.9</v>
       </c>
-      <c r="F9" s="7">
+      <c r="H9" s="7">
         <v>81.7</v>
       </c>
-      <c r="G9" s="12">
+      <c r="I9" s="12">
         <v>81.099999999999994</v>
       </c>
-      <c r="H9" s="10">
+      <c r="J9" s="10">
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4">
+      <c r="E10" s="4">
         <v>86.9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="F10" s="4">
         <v>87.5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="G10" s="4">
         <v>88</v>
       </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
         <v>81.7</v>
       </c>
-      <c r="G10" s="12">
+      <c r="I10" s="12">
         <v>80.900000000000006</v>
       </c>
-      <c r="H10" s="9">
+      <c r="J10" s="9">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="4">
+      <c r="E11" s="4">
         <v>85.7</v>
       </c>
-      <c r="D11" s="4">
+      <c r="F11" s="4">
         <v>86.2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="G11" s="4">
         <v>86.8</v>
       </c>
-      <c r="F11" s="7">
+      <c r="H11" s="7">
         <v>78.8</v>
       </c>
-      <c r="G11" s="12">
+      <c r="I11" s="12">
         <v>79.2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="J11" s="9">
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="4">
+      <c r="E12" s="4">
         <v>86.2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="F12" s="4">
         <v>85.8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="G12" s="4">
         <v>86.6</v>
       </c>
-      <c r="F12" s="7">
+      <c r="H12" s="7">
         <v>80.3</v>
       </c>
-      <c r="G12" s="12">
+      <c r="I12" s="12">
         <v>80.3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="J12" s="9">
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="4">
+      <c r="E13" s="4">
         <v>88.3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="F13" s="4">
         <v>87.9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="G13" s="4">
         <v>89</v>
       </c>
-      <c r="F13" s="7">
+      <c r="H13" s="7">
         <v>81.400000000000006</v>
       </c>
-      <c r="G13" s="2">
+      <c r="I13" s="2">
         <v>83.3</v>
       </c>
-      <c r="H13" s="9">
+      <c r="J13" s="9">
         <v>82.9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="4">
+      <c r="E14" s="4">
         <v>86.9</v>
       </c>
-      <c r="D14" s="4">
+      <c r="F14" s="4">
         <v>86.7</v>
       </c>
-      <c r="E14" s="4">
+      <c r="G14" s="4">
         <v>86.8</v>
       </c>
-      <c r="F14" s="7">
+      <c r="H14" s="7">
         <v>80.400000000000006</v>
       </c>
-      <c r="G14" s="2">
+      <c r="I14" s="2">
         <v>81.3</v>
       </c>
-      <c r="H14" s="9">
+      <c r="J14" s="9">
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="5">
+      <c r="E15" s="5">
         <v>87</v>
       </c>
-      <c r="D15" s="5">
+      <c r="F15" s="5">
         <v>86.3</v>
       </c>
-      <c r="E15" s="5">
+      <c r="G15" s="5">
         <v>87.2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="H15" s="7">
         <v>81.7</v>
       </c>
-      <c r="G15" s="2">
+      <c r="I15" s="2">
         <v>83</v>
       </c>
-      <c r="H15" s="9">
+      <c r="J15" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="4">
+      <c r="E16" s="4">
         <v>85.5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="F16" s="4">
         <v>85.3</v>
       </c>
-      <c r="E16" s="4">
+      <c r="G16" s="4">
         <v>86.7</v>
       </c>
-      <c r="F16" s="7">
+      <c r="H16" s="7">
         <v>80.8</v>
       </c>
-      <c r="G16" s="12">
+      <c r="I16" s="12">
         <v>78.099999999999994</v>
       </c>
-      <c r="H16" s="10">
+      <c r="J16" s="10">
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4">
+      <c r="E17" s="4">
         <v>86.3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="F17" s="4">
         <v>86.9</v>
       </c>
-      <c r="E17" s="4">
+      <c r="G17" s="4">
         <v>87.2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="H17" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="2">
         <v>81.599999999999994</v>
       </c>
-      <c r="H17" s="9">
+      <c r="J17" s="9">
         <v>81.7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="1">
+      <c r="E18" s="1">
         <v>85.9</v>
       </c>
-      <c r="D18" s="1">
+      <c r="F18" s="1">
         <v>84.6</v>
       </c>
-      <c r="E18" s="1">
+      <c r="G18" s="1">
         <v>86.2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="H18" s="7">
         <v>80.900000000000006</v>
       </c>
-      <c r="G18" s="2">
+      <c r="I18" s="2">
         <v>81</v>
       </c>
-      <c r="H18" s="9">
+      <c r="J18" s="9">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="4">
+      <c r="E19" s="4">
         <v>85.8</v>
       </c>
-      <c r="D19" s="4">
+      <c r="F19" s="4">
         <v>85.6</v>
       </c>
-      <c r="E19" s="4">
+      <c r="G19" s="4">
         <v>86.2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <v>78.900000000000006</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="2">
         <v>80.5</v>
       </c>
-      <c r="H19" s="9">
+      <c r="J19" s="9">
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="4">
+      <c r="E20" s="4">
         <v>86.2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="F20" s="4">
         <v>85.4</v>
       </c>
-      <c r="E20" s="4">
+      <c r="G20" s="4">
         <v>86.9</v>
       </c>
-      <c r="F20" s="7">
+      <c r="H20" s="7">
         <v>79.5</v>
       </c>
-      <c r="G20" s="12">
+      <c r="I20" s="12">
         <v>78.5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="J20" s="9">
         <v>80.7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="4">
+      <c r="E21" s="4">
         <v>84.4</v>
       </c>
-      <c r="D21" s="4">
+      <c r="F21" s="4">
         <v>84.5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="G21" s="4">
         <v>85.6</v>
       </c>
-      <c r="F21" s="7">
+      <c r="H21" s="7">
         <v>80.3</v>
       </c>
-      <c r="G21" s="12">
+      <c r="I21" s="12">
         <v>79.2</v>
       </c>
-      <c r="H21" s="10">
+      <c r="J21" s="10">
         <v>78.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="4">
+      <c r="E22" s="4">
         <v>87.1</v>
       </c>
-      <c r="D22" s="4">
+      <c r="F22" s="4">
         <v>87</v>
       </c>
-      <c r="E22" s="4">
+      <c r="G22" s="4">
         <v>86.8</v>
       </c>
-      <c r="F22" s="7">
+      <c r="H22" s="7">
         <v>81.3</v>
       </c>
-      <c r="G22" s="2">
+      <c r="I22" s="2">
         <v>82.6</v>
       </c>
-      <c r="H22" s="9">
+      <c r="J22" s="9">
         <v>82.7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="1">
+      <c r="E23" s="1">
         <v>85.3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <v>85.3</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>85.9</v>
       </c>
-      <c r="F23" s="7">
+      <c r="H23" s="7">
         <v>80.599999999999994</v>
       </c>
-      <c r="G23" s="12">
+      <c r="I23" s="12">
         <v>79.099999999999994</v>
       </c>
-      <c r="H23" s="10">
+      <c r="J23" s="10">
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="4">
+      <c r="E24" s="4">
         <v>83.8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="F24" s="4">
         <v>81.099999999999994</v>
       </c>
-      <c r="E24" s="4">
+      <c r="G24" s="4">
         <v>81.599999999999994</v>
       </c>
-      <c r="F24" s="7">
+      <c r="H24" s="7">
         <v>81.599999999999994</v>
       </c>
-      <c r="G24" s="2">
+      <c r="I24" s="2">
         <v>82.6</v>
       </c>
-      <c r="H24" s="9">
+      <c r="J24" s="9">
         <v>82.7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="5">
+      <c r="E25" s="5">
         <v>83.9</v>
       </c>
-      <c r="D25" s="5">
+      <c r="F25" s="5">
         <v>83.5</v>
       </c>
-      <c r="E25" s="5">
+      <c r="G25" s="5">
         <v>85.8</v>
       </c>
-      <c r="F25" s="7">
+      <c r="H25" s="7">
         <v>74.099999999999994</v>
       </c>
-      <c r="G25" s="6">
+      <c r="I25" s="6">
         <v>10.4</v>
       </c>
-      <c r="H25" s="9">
+      <c r="J25" s="9">
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="1">
+      <c r="E26" s="1">
         <v>82.9</v>
       </c>
-      <c r="D26" s="1">
+      <c r="F26" s="1">
         <v>84.5</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>85.3</v>
       </c>
-      <c r="F26" s="7">
+      <c r="H26" s="7">
         <v>80</v>
       </c>
-      <c r="G26" s="2">
+      <c r="I26" s="2">
         <v>80.900000000000006</v>
       </c>
-      <c r="H26" s="9">
+      <c r="J26" s="9">
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1">
+      <c r="E27" s="1">
         <v>80.3</v>
       </c>
-      <c r="D27" s="1">
+      <c r="F27" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>81.3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="H27" s="7">
         <v>74</v>
       </c>
-      <c r="G27" s="12">
+      <c r="I27" s="12">
         <v>74.2</v>
       </c>
-      <c r="H27" s="9">
+      <c r="J27" s="9">
         <v>74.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="5">
+      <c r="E28" s="5">
         <v>77.2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="F28" s="5">
         <v>79</v>
       </c>
-      <c r="E28" s="5">
+      <c r="G28" s="5">
         <v>79.099999999999994</v>
       </c>
-      <c r="F28" s="7">
+      <c r="H28" s="7">
         <v>70.900000000000006</v>
       </c>
-      <c r="G28" s="6">
+      <c r="I28" s="6">
         <v>55.6</v>
       </c>
-      <c r="H28" s="9">
+      <c r="J28" s="9">
         <v>71.7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="1">
+      <c r="E29" s="1">
         <v>84</v>
       </c>
-      <c r="D29" s="1">
+      <c r="F29" s="1">
         <v>84.9</v>
       </c>
-      <c r="E29" s="1">
+      <c r="G29" s="1">
         <v>84.9</v>
       </c>
-      <c r="F29" s="7">
+      <c r="H29" s="7">
         <v>78.599999999999994</v>
       </c>
-      <c r="G29" s="2">
+      <c r="I29" s="2">
         <v>77.599999999999994</v>
       </c>
-      <c r="H29" s="10">
+      <c r="J29" s="10">
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="5">
+      <c r="E30" s="5">
         <v>86.5</v>
       </c>
-      <c r="D30" s="5">
+      <c r="F30" s="5">
         <v>86.1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="G30" s="5">
         <v>86.4</v>
       </c>
-      <c r="F30" s="7">
+      <c r="H30" s="7">
         <v>77.2</v>
       </c>
-      <c r="G30" s="2">
+      <c r="I30" s="2">
         <v>79.7</v>
       </c>
-      <c r="H30" s="9">
+      <c r="J30" s="9">
         <v>79.7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="1">
+      <c r="E31" s="1">
         <v>86.1</v>
       </c>
-      <c r="D31" s="1">
+      <c r="F31" s="1">
         <v>85.2</v>
       </c>
-      <c r="E31" s="1">
+      <c r="G31" s="1">
         <v>86.6</v>
       </c>
-      <c r="F31" s="7">
+      <c r="H31" s="7">
         <v>81</v>
       </c>
-      <c r="G31" s="12">
+      <c r="I31" s="12">
         <v>79.900000000000006</v>
       </c>
-      <c r="H31" s="10">
+      <c r="J31" s="10">
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="1">
+      <c r="E32" s="1">
         <v>85.1</v>
       </c>
-      <c r="D32" s="1">
+      <c r="F32" s="1">
         <v>86</v>
       </c>
-      <c r="E32" s="1">
+      <c r="G32" s="1">
         <v>86.5</v>
       </c>
-      <c r="F32" s="7">
+      <c r="H32" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G32" s="12">
+      <c r="I32" s="12">
         <v>77.599999999999994</v>
       </c>
-      <c r="H32" s="10">
+      <c r="J32" s="10">
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="1">
+      <c r="E33" s="1">
         <v>84.3</v>
       </c>
-      <c r="D33" s="1">
+      <c r="F33" s="1">
         <v>84.9</v>
       </c>
-      <c r="E33" s="1">
+      <c r="G33" s="1">
         <v>86</v>
       </c>
-      <c r="F33" s="7">
+      <c r="H33" s="7">
         <v>79.8</v>
       </c>
-      <c r="G33" s="12">
+      <c r="I33" s="12">
         <v>79.599999999999994</v>
       </c>
-      <c r="H33" s="10">
+      <c r="J33" s="10">
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="5">
+      <c r="E34" s="5">
         <v>86.1</v>
       </c>
-      <c r="D34" s="5">
+      <c r="F34" s="5">
         <v>86.8</v>
       </c>
-      <c r="E34" s="5">
+      <c r="G34" s="5">
         <v>86.9</v>
       </c>
-      <c r="F34" s="7">
+      <c r="H34" s="7">
         <v>82</v>
       </c>
-      <c r="G34" s="2">
+      <c r="I34" s="2">
         <v>82.4</v>
       </c>
-      <c r="H34" s="8">
+      <c r="J34" s="8">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="5">
+      <c r="E35" s="5">
         <v>83.6</v>
       </c>
-      <c r="D35" s="5">
+      <c r="F35" s="5">
         <v>84.6</v>
       </c>
-      <c r="E35" s="5">
+      <c r="G35" s="5">
         <v>85.2</v>
       </c>
-      <c r="F35" s="7">
+      <c r="H35" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G35" s="6">
+      <c r="I35" s="6">
         <v>62.2</v>
       </c>
-      <c r="H35" s="10">
+      <c r="J35" s="10">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="4">
+      <c r="E36" s="4">
         <v>87.3</v>
       </c>
-      <c r="D36" s="4">
+      <c r="F36" s="4">
         <v>87.6</v>
       </c>
-      <c r="E36" s="4">
+      <c r="G36" s="4">
         <v>87.7</v>
       </c>
-      <c r="F36" s="7">
+      <c r="H36" s="7">
         <v>81</v>
       </c>
-      <c r="G36" s="12">
+      <c r="I36" s="12">
         <v>79.599999999999994</v>
       </c>
-      <c r="H36" s="10">
+      <c r="J36" s="10">
         <v>80.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="4">
+      <c r="E37" s="4">
         <v>86.8</v>
       </c>
-      <c r="D37" s="4">
+      <c r="F37" s="4">
         <v>87.2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="G37" s="4">
         <v>87.6</v>
       </c>
-      <c r="F37" s="7">
+      <c r="H37" s="7">
         <v>81.099999999999994</v>
       </c>
-      <c r="G37" s="2">
+      <c r="I37" s="2">
         <v>81.900000000000006</v>
       </c>
-      <c r="H37" s="9">
+      <c r="J37" s="9">
         <v>81.3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="5">
+      <c r="E38" s="5">
         <v>85.8</v>
       </c>
-      <c r="D38" s="5">
+      <c r="F38" s="5">
         <v>86.3</v>
       </c>
-      <c r="E38" s="5">
+      <c r="G38" s="5">
         <v>87.1</v>
       </c>
-      <c r="F38" s="7">
+      <c r="H38" s="7">
         <v>80.599999999999994</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>81</v>
       </c>
-      <c r="H38" s="9">
+      <c r="J38" s="9">
         <v>81.7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="4">
+      <c r="E39" s="4">
         <v>86.7</v>
       </c>
-      <c r="D39" s="4">
+      <c r="F39" s="4">
         <v>86.7</v>
       </c>
-      <c r="E39" s="4">
+      <c r="G39" s="4">
         <v>86.9</v>
       </c>
-      <c r="F39" s="7">
+      <c r="H39" s="7">
         <v>80.8</v>
       </c>
-      <c r="G39" s="2">
+      <c r="I39" s="2">
         <v>80.900000000000006</v>
       </c>
-      <c r="H39" s="9">
+      <c r="J39" s="9">
         <v>81.3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="4">
+      <c r="E40" s="4">
         <v>86.9</v>
       </c>
-      <c r="D40" s="4">
+      <c r="F40" s="4">
         <v>87.2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="G40" s="4">
         <v>87</v>
       </c>
-      <c r="F40" s="7">
+      <c r="H40" s="7">
         <v>80.2</v>
       </c>
-      <c r="G40" s="2">
+      <c r="I40" s="2">
         <v>81.400000000000006</v>
       </c>
-      <c r="H40" s="9">
+      <c r="J40" s="9">
         <v>82.7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="4">
+      <c r="E41" s="4">
         <v>87.2</v>
       </c>
-      <c r="D41" s="4">
+      <c r="F41" s="4">
         <v>87</v>
       </c>
-      <c r="E41" s="4">
+      <c r="G41" s="4">
         <v>86.8</v>
       </c>
-      <c r="F41" s="7">
+      <c r="H41" s="7">
         <v>80.400000000000006</v>
       </c>
-      <c r="G41" s="2">
+      <c r="I41" s="2">
         <v>80.099999999999994</v>
       </c>
-      <c r="H41" s="9">
+      <c r="J41" s="9">
         <v>82.1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="5">
+      <c r="E42" s="5">
         <v>86.3</v>
       </c>
-      <c r="D42" s="5">
+      <c r="F42" s="5">
         <v>85.9</v>
       </c>
-      <c r="E42" s="5">
+      <c r="G42" s="5">
         <v>86.8</v>
       </c>
-      <c r="F42" s="7">
+      <c r="H42" s="7">
         <v>79</v>
       </c>
-      <c r="G42" s="2">
+      <c r="I42" s="2">
         <v>79.400000000000006</v>
       </c>
-      <c r="H42" s="9">
+      <c r="J42" s="9">
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" s="1">
-        <v>86.4</v>
-      </c>
-      <c r="D43" s="1">
-        <v>85.9</v>
       </c>
       <c r="E43" s="1">
         <v>86.4</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="G43" s="1">
+        <v>86.4</v>
+      </c>
+      <c r="H43" s="7">
         <v>80.2</v>
       </c>
-      <c r="G43" s="2">
+      <c r="I43" s="2">
         <v>80.900000000000006</v>
       </c>
-      <c r="H43" s="9">
+      <c r="J43" s="9">
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="4">
+      <c r="E44" s="4">
         <v>87.9</v>
       </c>
-      <c r="D44" s="4">
+      <c r="F44" s="4">
         <v>87.8</v>
       </c>
-      <c r="E44" s="4">
+      <c r="G44" s="4">
         <v>88.5</v>
       </c>
-      <c r="F44" s="7">
+      <c r="H44" s="7">
         <v>80.400000000000006</v>
       </c>
-      <c r="G44" s="2">
+      <c r="I44" s="2">
         <v>80.8</v>
       </c>
-      <c r="H44" s="9">
+      <c r="J44" s="9">
         <v>80.5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="1">
+      <c r="E45" s="1">
         <v>83.1</v>
       </c>
-      <c r="D45" s="1">
+      <c r="F45" s="1">
         <v>84</v>
       </c>
-      <c r="E45" s="1">
+      <c r="G45" s="1">
         <v>85.8</v>
       </c>
-      <c r="F45" s="7">
+      <c r="H45" s="7">
         <v>80.3</v>
       </c>
-      <c r="G45" s="2">
+      <c r="I45" s="2">
         <v>80.8</v>
       </c>
-      <c r="H45" s="9">
+      <c r="J45" s="9">
         <v>80.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="5">
+      <c r="E46" s="5">
         <v>83.5</v>
       </c>
-      <c r="D46" s="5">
+      <c r="F46" s="5">
         <v>84.4</v>
       </c>
-      <c r="E46" s="5">
+      <c r="G46" s="5">
         <v>85.2</v>
       </c>
-      <c r="F46" s="7">
+      <c r="H46" s="7">
         <v>77.400000000000006</v>
       </c>
-      <c r="G46" s="12">
+      <c r="I46" s="12">
         <v>76.400000000000006</v>
       </c>
-      <c r="H46" s="9">
+      <c r="J46" s="9">
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="1">
+      <c r="E47" s="1">
         <v>84.5</v>
       </c>
-      <c r="D47" s="1">
+      <c r="F47" s="1">
         <v>84.9</v>
       </c>
-      <c r="E47" s="1">
+      <c r="G47" s="1">
         <v>85.5</v>
       </c>
-      <c r="F47" s="7">
+      <c r="H47" s="7">
         <v>78.099999999999994</v>
       </c>
-      <c r="G47" s="2">
+      <c r="I47" s="2">
         <v>77.900000000000006</v>
       </c>
-      <c r="H47" s="10">
+      <c r="J47" s="10">
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="5">
+      <c r="E48" s="5">
         <v>84.7</v>
       </c>
-      <c r="D48" s="5">
+      <c r="F48" s="5">
         <v>85.2</v>
       </c>
-      <c r="E48" s="5">
+      <c r="G48" s="5">
         <v>85.5</v>
       </c>
-      <c r="F48" s="7">
+      <c r="H48" s="7">
         <v>78.900000000000006</v>
       </c>
-      <c r="G48" s="6">
+      <c r="I48" s="6">
         <v>61.8</v>
       </c>
-      <c r="H48" s="8">
+      <c r="J48" s="8">
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="5">
+      <c r="E49" s="5">
         <v>84.6</v>
       </c>
-      <c r="D49" s="5">
+      <c r="F49" s="5">
         <v>85.1</v>
       </c>
-      <c r="E49" s="5">
+      <c r="G49" s="5">
         <v>87</v>
       </c>
-      <c r="F49" s="7">
+      <c r="H49" s="7">
         <v>79.900000000000006</v>
       </c>
-      <c r="G49" s="2">
+      <c r="I49" s="2">
         <v>81.3</v>
       </c>
-      <c r="H49" s="9">
+      <c r="J49" s="9">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="4">
+      <c r="E50" s="4">
         <v>86.3</v>
       </c>
-      <c r="D50" s="4">
+      <c r="F50" s="4">
         <v>86.1</v>
       </c>
-      <c r="E50" s="4">
+      <c r="G50" s="4">
         <v>87.1</v>
       </c>
-      <c r="F50" s="7">
+      <c r="H50" s="7">
         <v>79.7</v>
       </c>
-      <c r="G50" s="2">
+      <c r="I50" s="2">
         <v>79</v>
       </c>
-      <c r="H50" s="9">
+      <c r="J50" s="9">
         <v>80.2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="1">
+      <c r="E51" s="1">
         <v>83.2</v>
       </c>
-      <c r="D51" s="1">
+      <c r="F51" s="1">
         <v>84.3</v>
       </c>
-      <c r="E51" s="1">
+      <c r="G51" s="1">
         <v>85.1</v>
       </c>
-      <c r="F51" s="7">
+      <c r="H51" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G51" s="2">
+      <c r="I51" s="2">
         <v>79.8</v>
       </c>
-      <c r="H51" s="9">
+      <c r="J51" s="9">
         <v>79.8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="1">
+      <c r="E52" s="1">
         <v>86.3</v>
       </c>
-      <c r="D52" s="1">
+      <c r="F52" s="1">
         <v>85.8</v>
       </c>
-      <c r="E52" s="1">
+      <c r="G52" s="1">
         <v>87.2</v>
       </c>
-      <c r="F52" s="7">
+      <c r="H52" s="7">
         <v>81</v>
       </c>
-      <c r="G52" s="2">
+      <c r="I52" s="2">
         <v>79.900000000000006</v>
       </c>
-      <c r="H52" s="10">
+      <c r="J52" s="10">
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="5">
+      <c r="E53" s="5">
         <v>84.9</v>
       </c>
-      <c r="D53" s="5">
+      <c r="F53" s="5">
         <v>85.2</v>
       </c>
-      <c r="E53" s="5">
+      <c r="G53" s="5">
         <v>85.8</v>
       </c>
-      <c r="F53" s="7">
+      <c r="H53" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G53" s="6">
+      <c r="I53" s="6">
         <v>7.8</v>
       </c>
-      <c r="H53" s="10">
+      <c r="J53" s="10">
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="5">
+      <c r="E54" s="5">
         <v>83</v>
       </c>
-      <c r="D54" s="5">
+      <c r="F54" s="5">
         <v>82.9</v>
       </c>
-      <c r="E54" s="5">
+      <c r="G54" s="5">
         <v>83.8</v>
       </c>
-      <c r="F54" s="7">
+      <c r="H54" s="7">
         <v>75.7</v>
       </c>
-      <c r="G54" s="6">
+      <c r="I54" s="6">
         <v>14.8</v>
       </c>
-      <c r="H54" s="9">
+      <c r="J54" s="9">
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C55">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E55">
         <f>AVERAGE(Tabla13478[XLM-R Full])</f>
         <v>85.050980392156859</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <f>AVERAGE(Tabla13478[mT5 T2T Full])</f>
         <v>85.21960784313724</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <f>AVERAGE(Tabla13478[mT5 Enc Full])</f>
         <v>85.974509803921578</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <f>AVERAGE(Tabla13478[RASA])</f>
         <v>79.464705882352931</v>
       </c>
-      <c r="G55">
-        <f>AVERAGE(Tabla13478[neural utt])</f>
+      <c r="I55">
+        <f>AVERAGE(Tabla13478[Neural 1])</f>
         <v>74.725490196078454</v>
       </c>
-      <c r="H55">
-        <f>AVERAGE(Tabla13478[neural utt processor])</f>
+      <c r="J55">
+        <f>AVERAGE(Tabla13478[Neural 2])</f>
         <v>79.976470588235301</v>
       </c>
     </row>
@@ -5295,11 +5288,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E00FF5-4831-4362-8316-BFBCDB154FC5}">
-  <dimension ref="A3:I55"/>
+  <dimension ref="C3:K55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4:H54"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5313,1541 +5306,1541 @@
     <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>107</v>
       </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" t="s">
-        <v>110</v>
-      </c>
       <c r="I3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>85.6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>86</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>86.9</v>
       </c>
-      <c r="F4" s="7">
+      <c r="H4" s="7">
         <v>81</v>
       </c>
-      <c r="G4" s="10">
+      <c r="I4" s="10">
         <v>80.900000000000006</v>
       </c>
-      <c r="H4" s="10">
+      <c r="J4" s="10">
         <v>80.900000000000006</v>
       </c>
-      <c r="I4" s="9">
+      <c r="K4" s="9">
         <v>82.4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>81.7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>82.7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>84.2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="H5" s="7">
         <v>77.3</v>
       </c>
-      <c r="G5" s="13">
+      <c r="I5" s="13">
         <v>77.400000000000006</v>
       </c>
-      <c r="H5" s="13">
+      <c r="J5" s="13">
         <v>77.400000000000006</v>
       </c>
-      <c r="I5" s="8">
+      <c r="K5" s="8">
         <v>77.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="4">
+      <c r="E6" s="4">
         <v>80.7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="F6" s="4">
         <v>81.8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="4">
         <v>82.2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="H6" s="7">
         <v>74.400000000000006</v>
       </c>
-      <c r="G6" s="9">
+      <c r="I6" s="9">
         <v>76</v>
       </c>
-      <c r="H6" s="9">
+      <c r="J6" s="9">
         <v>76.2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="K6" s="9">
         <v>77.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="5">
+      <c r="E7" s="5">
         <v>86.2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="F7" s="5">
         <v>86.2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>86.4</v>
       </c>
-      <c r="F7" s="7">
+      <c r="H7" s="7">
         <v>82.1</v>
       </c>
-      <c r="G7" s="10">
+      <c r="I7" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="H7" s="10">
+      <c r="J7" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="I7" s="9">
+      <c r="K7" s="9">
         <v>82.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>84.1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>84.8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>85.8</v>
       </c>
-      <c r="F8" s="7">
+      <c r="H8" s="7">
         <v>77.7</v>
       </c>
-      <c r="G8" s="9">
+      <c r="I8" s="9">
         <v>78.900000000000006</v>
       </c>
-      <c r="H8" s="9">
+      <c r="J8" s="9">
         <v>79.3</v>
       </c>
-      <c r="I8" s="9">
+      <c r="K8" s="9">
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>82.6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>83.7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>84.9</v>
       </c>
-      <c r="F9" s="7">
+      <c r="H9" s="7">
         <v>81.7</v>
       </c>
-      <c r="G9" s="10">
+      <c r="I9" s="10">
         <v>81.099999999999994</v>
       </c>
-      <c r="H9" s="10">
+      <c r="J9" s="10">
         <v>81.099999999999994</v>
       </c>
-      <c r="I9" s="9">
+      <c r="K9" s="9">
         <v>82.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4">
+      <c r="E10" s="4">
         <v>86.9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="F10" s="4">
         <v>87.5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="G10" s="4">
         <v>88</v>
       </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
         <v>81.7</v>
       </c>
-      <c r="G10" s="10">
+      <c r="I10" s="10">
         <v>80.900000000000006</v>
       </c>
-      <c r="H10" s="9">
+      <c r="J10" s="9">
         <v>82</v>
       </c>
-      <c r="I10" s="9">
+      <c r="K10" s="9">
         <v>83.8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="4">
+      <c r="E11" s="4">
         <v>85.7</v>
       </c>
-      <c r="D11" s="4">
+      <c r="F11" s="4">
         <v>86.2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="G11" s="4">
         <v>86.8</v>
       </c>
-      <c r="F11" s="7">
+      <c r="H11" s="7">
         <v>78.8</v>
       </c>
-      <c r="G11" s="9">
+      <c r="I11" s="9">
         <v>79.2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="J11" s="9">
         <v>79.900000000000006</v>
       </c>
-      <c r="I11" s="9">
+      <c r="K11" s="9">
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="4">
+      <c r="E12" s="4">
         <v>86.2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="F12" s="4">
         <v>85.8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="G12" s="4">
         <v>86.6</v>
       </c>
-      <c r="F12" s="7">
+      <c r="H12" s="7">
         <v>80.3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="I12" s="8">
         <v>80.3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="J12" s="9">
         <v>81.599999999999994</v>
       </c>
-      <c r="I12" s="9">
+      <c r="K12" s="9">
         <v>82.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="4">
+      <c r="E13" s="4">
         <v>88.3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="F13" s="4">
         <v>87.9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="G13" s="4">
         <v>89</v>
       </c>
-      <c r="F13" s="7">
+      <c r="H13" s="7">
         <v>81.400000000000006</v>
       </c>
-      <c r="G13" s="9">
+      <c r="I13" s="9">
         <v>83.3</v>
       </c>
-      <c r="H13" s="9">
+      <c r="J13" s="9">
         <v>82.9</v>
       </c>
-      <c r="I13" s="9">
+      <c r="K13" s="9">
         <v>84.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="4">
+      <c r="E14" s="4">
         <v>86.9</v>
       </c>
-      <c r="D14" s="4">
+      <c r="F14" s="4">
         <v>86.7</v>
       </c>
-      <c r="E14" s="4">
+      <c r="G14" s="4">
         <v>86.8</v>
       </c>
-      <c r="F14" s="7">
+      <c r="H14" s="7">
         <v>80.400000000000006</v>
       </c>
-      <c r="G14" s="9">
+      <c r="I14" s="9">
         <v>81.3</v>
       </c>
-      <c r="H14" s="9">
+      <c r="J14" s="9">
         <v>81.099999999999994</v>
       </c>
-      <c r="I14" s="9">
+      <c r="K14" s="9">
         <v>83.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="5">
+      <c r="E15" s="5">
         <v>87</v>
       </c>
-      <c r="D15" s="5">
+      <c r="F15" s="5">
         <v>86.3</v>
       </c>
-      <c r="E15" s="5">
+      <c r="G15" s="5">
         <v>87.2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="H15" s="7">
         <v>81.7</v>
       </c>
-      <c r="G15" s="9">
+      <c r="I15" s="9">
         <v>83</v>
       </c>
-      <c r="H15" s="9">
+      <c r="J15" s="9">
         <v>83</v>
       </c>
-      <c r="I15" s="9">
+      <c r="K15" s="9">
         <v>83.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="4">
+      <c r="E16" s="4">
         <v>85.5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="F16" s="4">
         <v>85.3</v>
       </c>
-      <c r="E16" s="4">
+      <c r="G16" s="4">
         <v>86.7</v>
       </c>
-      <c r="F16" s="7">
+      <c r="H16" s="7">
         <v>80.8</v>
       </c>
-      <c r="G16" s="10">
+      <c r="I16" s="10">
         <v>78.099999999999994</v>
       </c>
-      <c r="H16" s="10">
+      <c r="J16" s="10">
         <v>80.099999999999994</v>
       </c>
-      <c r="I16" s="9">
+      <c r="K16" s="9">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4">
+      <c r="E17" s="4">
         <v>86.3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="F17" s="4">
         <v>86.9</v>
       </c>
-      <c r="E17" s="4">
+      <c r="G17" s="4">
         <v>87.2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="H17" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G17" s="9">
+      <c r="I17" s="9">
         <v>81.599999999999994</v>
       </c>
-      <c r="H17" s="9">
+      <c r="J17" s="9">
         <v>81.7</v>
       </c>
-      <c r="I17" s="9">
+      <c r="K17" s="9">
         <v>83.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="1">
+      <c r="E18" s="1">
         <v>85.9</v>
       </c>
-      <c r="D18" s="1">
+      <c r="F18" s="1">
         <v>84.6</v>
       </c>
-      <c r="E18" s="1">
+      <c r="G18" s="1">
         <v>86.2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="H18" s="7">
         <v>80.900000000000006</v>
       </c>
-      <c r="G18" s="9">
+      <c r="I18" s="9">
         <v>81</v>
       </c>
-      <c r="H18" s="9">
+      <c r="J18" s="9">
         <v>81</v>
       </c>
-      <c r="I18" s="9">
+      <c r="K18" s="9">
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="4">
+      <c r="E19" s="4">
         <v>85.8</v>
       </c>
-      <c r="D19" s="4">
+      <c r="F19" s="4">
         <v>85.6</v>
       </c>
-      <c r="E19" s="4">
+      <c r="G19" s="4">
         <v>86.2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <v>78.900000000000006</v>
       </c>
-      <c r="G19" s="9">
+      <c r="I19" s="9">
         <v>80.5</v>
       </c>
-      <c r="H19" s="9">
+      <c r="J19" s="9">
         <v>80.400000000000006</v>
       </c>
-      <c r="I19" s="9">
+      <c r="K19" s="9">
         <v>82.2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="4">
+      <c r="E20" s="4">
         <v>86.2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="F20" s="4">
         <v>85.4</v>
       </c>
-      <c r="E20" s="4">
+      <c r="G20" s="4">
         <v>86.9</v>
       </c>
-      <c r="F20" s="7">
+      <c r="H20" s="7">
         <v>79.5</v>
       </c>
-      <c r="G20" s="10">
+      <c r="I20" s="10">
         <v>78.5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="J20" s="9">
         <v>80.7</v>
       </c>
-      <c r="I20" s="9">
+      <c r="K20" s="9">
         <v>82.7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="4">
+      <c r="E21" s="4">
         <v>84.4</v>
       </c>
-      <c r="D21" s="4">
+      <c r="F21" s="4">
         <v>84.5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="G21" s="4">
         <v>85.6</v>
       </c>
-      <c r="F21" s="7">
+      <c r="H21" s="7">
         <v>80.3</v>
       </c>
-      <c r="G21" s="10">
+      <c r="I21" s="10">
         <v>79.2</v>
       </c>
-      <c r="H21" s="10">
+      <c r="J21" s="10">
         <v>78.8</v>
       </c>
-      <c r="I21" s="10">
+      <c r="K21" s="10">
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="4">
+      <c r="E22" s="4">
         <v>87.1</v>
       </c>
-      <c r="D22" s="4">
+      <c r="F22" s="4">
         <v>87</v>
       </c>
-      <c r="E22" s="4">
+      <c r="G22" s="4">
         <v>86.8</v>
       </c>
-      <c r="F22" s="7">
+      <c r="H22" s="7">
         <v>81.3</v>
       </c>
-      <c r="G22" s="9">
+      <c r="I22" s="9">
         <v>82.6</v>
       </c>
-      <c r="H22" s="9">
+      <c r="J22" s="9">
         <v>82.7</v>
       </c>
-      <c r="I22" s="9">
+      <c r="K22" s="9">
         <v>84.7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="1">
+      <c r="E23" s="1">
         <v>85.3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <v>85.3</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>85.9</v>
       </c>
-      <c r="F23" s="7">
+      <c r="H23" s="7">
         <v>80.599999999999994</v>
       </c>
-      <c r="G23" s="10">
+      <c r="I23" s="10">
         <v>79.099999999999994</v>
       </c>
-      <c r="H23" s="10">
+      <c r="J23" s="10">
         <v>79.099999999999994</v>
       </c>
-      <c r="I23" s="9">
+      <c r="K23" s="9">
         <v>80.7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="4">
+      <c r="E24" s="4">
         <v>83.8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="F24" s="4">
         <v>81.099999999999994</v>
       </c>
-      <c r="E24" s="4">
+      <c r="G24" s="4">
         <v>81.599999999999994</v>
       </c>
-      <c r="F24" s="7">
+      <c r="H24" s="7">
         <v>81.599999999999994</v>
       </c>
-      <c r="G24" s="9">
+      <c r="I24" s="9">
         <v>82.6</v>
       </c>
-      <c r="H24" s="9">
+      <c r="J24" s="9">
         <v>82.7</v>
       </c>
-      <c r="I24" s="9">
+      <c r="K24" s="9">
         <v>83.8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="5">
+      <c r="E25" s="5">
         <v>83.9</v>
       </c>
-      <c r="D25" s="5">
+      <c r="F25" s="5">
         <v>83.5</v>
       </c>
-      <c r="E25" s="5">
+      <c r="G25" s="5">
         <v>85.8</v>
       </c>
-      <c r="F25" s="7">
+      <c r="H25" s="7">
         <v>74.099999999999994</v>
       </c>
-      <c r="G25" s="11">
+      <c r="I25" s="11">
         <v>10.4</v>
       </c>
-      <c r="H25" s="9">
+      <c r="J25" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="I25" s="9">
+      <c r="K25" s="9">
         <v>82.8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="1">
+      <c r="E26" s="1">
         <v>82.9</v>
       </c>
-      <c r="D26" s="1">
+      <c r="F26" s="1">
         <v>84.5</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>85.3</v>
       </c>
-      <c r="F26" s="7">
+      <c r="H26" s="7">
         <v>80</v>
       </c>
-      <c r="G26" s="9">
+      <c r="I26" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="H26" s="9">
+      <c r="J26" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="I26" s="9">
+      <c r="K26" s="9">
         <v>81.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1">
+      <c r="E27" s="1">
         <v>80.3</v>
       </c>
-      <c r="D27" s="1">
+      <c r="F27" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>81.3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="H27" s="7">
         <v>74</v>
       </c>
-      <c r="G27" s="9">
+      <c r="I27" s="9">
         <v>74.2</v>
       </c>
-      <c r="H27" s="9">
+      <c r="J27" s="9">
         <v>74.2</v>
       </c>
-      <c r="I27" s="9">
+      <c r="K27" s="9">
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="5">
+      <c r="E28" s="5">
         <v>77.2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="F28" s="5">
         <v>79</v>
       </c>
-      <c r="E28" s="5">
+      <c r="G28" s="5">
         <v>79.099999999999994</v>
       </c>
-      <c r="F28" s="7">
+      <c r="H28" s="7">
         <v>70.900000000000006</v>
       </c>
-      <c r="G28" s="11">
+      <c r="I28" s="11">
         <v>55.6</v>
       </c>
-      <c r="H28" s="9">
+      <c r="J28" s="9">
         <v>71.7</v>
       </c>
-      <c r="I28" s="9">
+      <c r="K28" s="9">
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="1">
+      <c r="E29" s="1">
         <v>84</v>
       </c>
-      <c r="D29" s="1">
+      <c r="F29" s="1">
         <v>84.9</v>
       </c>
-      <c r="E29" s="1">
+      <c r="G29" s="1">
         <v>84.9</v>
       </c>
-      <c r="F29" s="7">
+      <c r="H29" s="7">
         <v>78.599999999999994</v>
       </c>
-      <c r="G29" s="10">
+      <c r="I29" s="10">
         <v>77.599999999999994</v>
       </c>
-      <c r="H29" s="10">
+      <c r="J29" s="10">
         <v>77.599999999999994</v>
       </c>
-      <c r="I29" s="9">
+      <c r="K29" s="9">
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="5">
+      <c r="E30" s="5">
         <v>86.5</v>
       </c>
-      <c r="D30" s="5">
+      <c r="F30" s="5">
         <v>86.1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="G30" s="5">
         <v>86.4</v>
       </c>
-      <c r="F30" s="7">
+      <c r="H30" s="7">
         <v>77.2</v>
       </c>
-      <c r="G30" s="9">
+      <c r="I30" s="9">
         <v>79.7</v>
       </c>
-      <c r="H30" s="9">
+      <c r="J30" s="9">
         <v>79.7</v>
       </c>
-      <c r="I30" s="9">
+      <c r="K30" s="9">
         <v>82.5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="1">
+      <c r="E31" s="1">
         <v>86.1</v>
       </c>
-      <c r="D31" s="1">
+      <c r="F31" s="1">
         <v>85.2</v>
       </c>
-      <c r="E31" s="1">
+      <c r="G31" s="1">
         <v>86.6</v>
       </c>
-      <c r="F31" s="7">
+      <c r="H31" s="7">
         <v>81</v>
       </c>
-      <c r="G31" s="10">
+      <c r="I31" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="H31" s="10">
+      <c r="J31" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="I31" s="8">
+      <c r="K31" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="1">
+      <c r="E32" s="1">
         <v>85.1</v>
       </c>
-      <c r="D32" s="1">
+      <c r="F32" s="1">
         <v>86</v>
       </c>
-      <c r="E32" s="1">
+      <c r="G32" s="1">
         <v>86.5</v>
       </c>
-      <c r="F32" s="7">
+      <c r="H32" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G32" s="10">
+      <c r="I32" s="10">
         <v>77.599999999999994</v>
       </c>
-      <c r="H32" s="10">
+      <c r="J32" s="10">
         <v>77.599999999999994</v>
       </c>
-      <c r="I32" s="10">
+      <c r="K32" s="10">
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="1">
+      <c r="E33" s="1">
         <v>84.3</v>
       </c>
-      <c r="D33" s="1">
+      <c r="F33" s="1">
         <v>84.9</v>
       </c>
-      <c r="E33" s="1">
+      <c r="G33" s="1">
         <v>86</v>
       </c>
-      <c r="F33" s="7">
+      <c r="H33" s="7">
         <v>79.8</v>
       </c>
-      <c r="G33" s="10">
+      <c r="I33" s="10">
         <v>79.599999999999994</v>
       </c>
-      <c r="H33" s="10">
+      <c r="J33" s="10">
         <v>79.599999999999994</v>
       </c>
-      <c r="I33" s="9">
+      <c r="K33" s="9">
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="5">
+      <c r="E34" s="5">
         <v>86.1</v>
       </c>
-      <c r="D34" s="5">
+      <c r="F34" s="5">
         <v>86.8</v>
       </c>
-      <c r="E34" s="5">
+      <c r="G34" s="5">
         <v>86.9</v>
       </c>
-      <c r="F34" s="7">
+      <c r="H34" s="7">
         <v>82</v>
       </c>
-      <c r="G34" s="9">
+      <c r="I34" s="9">
         <v>82.4</v>
       </c>
-      <c r="H34" s="8">
+      <c r="J34" s="8">
         <v>82</v>
       </c>
-      <c r="I34" s="9">
+      <c r="K34" s="9">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="5">
+      <c r="E35" s="5">
         <v>83.6</v>
       </c>
-      <c r="D35" s="5">
+      <c r="F35" s="5">
         <v>84.6</v>
       </c>
-      <c r="E35" s="5">
+      <c r="G35" s="5">
         <v>85.2</v>
       </c>
-      <c r="F35" s="7">
+      <c r="H35" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G35" s="11">
+      <c r="I35" s="11">
         <v>62.2</v>
       </c>
-      <c r="H35" s="10">
+      <c r="J35" s="10">
         <v>78</v>
       </c>
-      <c r="I35" s="9">
+      <c r="K35" s="9">
         <v>81.2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="4">
+      <c r="E36" s="4">
         <v>87.3</v>
       </c>
-      <c r="D36" s="4">
+      <c r="F36" s="4">
         <v>87.6</v>
       </c>
-      <c r="E36" s="4">
+      <c r="G36" s="4">
         <v>87.7</v>
       </c>
-      <c r="F36" s="7">
+      <c r="H36" s="7">
         <v>81</v>
       </c>
-      <c r="G36" s="10">
+      <c r="I36" s="10">
         <v>79.599999999999994</v>
       </c>
-      <c r="H36" s="10">
+      <c r="J36" s="10">
         <v>80.5</v>
       </c>
-      <c r="I36" s="9">
+      <c r="K36" s="9">
         <v>82.1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="4">
+      <c r="E37" s="4">
         <v>86.8</v>
       </c>
-      <c r="D37" s="4">
+      <c r="F37" s="4">
         <v>87.2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="G37" s="4">
         <v>87.6</v>
       </c>
-      <c r="F37" s="7">
+      <c r="H37" s="7">
         <v>81.099999999999994</v>
       </c>
-      <c r="G37" s="9">
+      <c r="I37" s="9">
         <v>81.900000000000006</v>
       </c>
-      <c r="H37" s="9">
+      <c r="J37" s="9">
         <v>81.3</v>
       </c>
-      <c r="I37" s="9">
+      <c r="K37" s="9">
         <v>83.2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="5">
+      <c r="E38" s="5">
         <v>85.8</v>
       </c>
-      <c r="D38" s="5">
+      <c r="F38" s="5">
         <v>86.3</v>
       </c>
-      <c r="E38" s="5">
+      <c r="G38" s="5">
         <v>87.1</v>
       </c>
-      <c r="F38" s="7">
+      <c r="H38" s="7">
         <v>80.599999999999994</v>
       </c>
-      <c r="G38" s="9">
+      <c r="I38" s="9">
         <v>81</v>
       </c>
-      <c r="H38" s="9">
+      <c r="J38" s="9">
         <v>81.7</v>
       </c>
-      <c r="I38" s="9">
+      <c r="K38" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="4">
+      <c r="E39" s="4">
         <v>86.7</v>
       </c>
-      <c r="D39" s="4">
+      <c r="F39" s="4">
         <v>86.7</v>
       </c>
-      <c r="E39" s="4">
+      <c r="G39" s="4">
         <v>86.9</v>
       </c>
-      <c r="F39" s="7">
+      <c r="H39" s="7">
         <v>80.8</v>
       </c>
-      <c r="G39" s="9">
+      <c r="I39" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="H39" s="9">
+      <c r="J39" s="9">
         <v>81.3</v>
       </c>
-      <c r="I39" s="9">
+      <c r="K39" s="9">
         <v>82.9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="4">
+      <c r="E40" s="4">
         <v>86.9</v>
       </c>
-      <c r="D40" s="4">
+      <c r="F40" s="4">
         <v>87.2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="G40" s="4">
         <v>87</v>
       </c>
-      <c r="F40" s="7">
+      <c r="H40" s="7">
         <v>80.2</v>
       </c>
-      <c r="G40" s="9">
+      <c r="I40" s="9">
         <v>81.400000000000006</v>
       </c>
-      <c r="H40" s="9">
+      <c r="J40" s="9">
         <v>82.7</v>
       </c>
-      <c r="I40" s="9">
+      <c r="K40" s="9">
         <v>83.2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="4">
+      <c r="E41" s="4">
         <v>87.2</v>
       </c>
-      <c r="D41" s="4">
+      <c r="F41" s="4">
         <v>87</v>
       </c>
-      <c r="E41" s="4">
+      <c r="G41" s="4">
         <v>86.8</v>
       </c>
-      <c r="F41" s="7">
+      <c r="H41" s="7">
         <v>80.400000000000006</v>
       </c>
-      <c r="G41" s="10">
+      <c r="I41" s="10">
         <v>80.099999999999994</v>
       </c>
-      <c r="H41" s="9">
+      <c r="J41" s="9">
         <v>82.1</v>
       </c>
-      <c r="I41" s="9">
+      <c r="K41" s="9">
         <v>83.3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="5">
+      <c r="E42" s="5">
         <v>86.3</v>
       </c>
-      <c r="D42" s="5">
+      <c r="F42" s="5">
         <v>85.9</v>
       </c>
-      <c r="E42" s="5">
+      <c r="G42" s="5">
         <v>86.8</v>
       </c>
-      <c r="F42" s="7">
+      <c r="H42" s="7">
         <v>79</v>
       </c>
-      <c r="G42" s="9">
+      <c r="I42" s="9">
         <v>79.400000000000006</v>
       </c>
-      <c r="H42" s="9">
+      <c r="J42" s="9">
         <v>81.099999999999994</v>
       </c>
-      <c r="I42" s="9">
+      <c r="K42" s="9">
         <v>81.5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" s="1">
-        <v>86.4</v>
-      </c>
-      <c r="D43" s="1">
-        <v>85.9</v>
       </c>
       <c r="E43" s="1">
         <v>86.4</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="G43" s="1">
+        <v>86.4</v>
+      </c>
+      <c r="H43" s="7">
         <v>80.2</v>
       </c>
-      <c r="G43" s="9">
+      <c r="I43" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="H43" s="9">
+      <c r="J43" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="I43" s="9">
+      <c r="K43" s="9">
         <v>82.3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="4">
+      <c r="E44" s="4">
         <v>87.9</v>
       </c>
-      <c r="D44" s="4">
+      <c r="F44" s="4">
         <v>87.8</v>
       </c>
-      <c r="E44" s="4">
+      <c r="G44" s="4">
         <v>88.5</v>
       </c>
-      <c r="F44" s="7">
+      <c r="H44" s="7">
         <v>80.400000000000006</v>
       </c>
-      <c r="G44" s="9">
+      <c r="I44" s="9">
         <v>80.8</v>
       </c>
-      <c r="H44" s="9">
+      <c r="J44" s="9">
         <v>80.5</v>
       </c>
-      <c r="I44" s="9">
+      <c r="K44" s="9">
         <v>81.7</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="1">
+      <c r="E45" s="1">
         <v>83.1</v>
       </c>
-      <c r="D45" s="1">
+      <c r="F45" s="1">
         <v>84</v>
       </c>
-      <c r="E45" s="1">
+      <c r="G45" s="1">
         <v>85.8</v>
       </c>
-      <c r="F45" s="7">
+      <c r="H45" s="7">
         <v>80.3</v>
       </c>
-      <c r="G45" s="9">
+      <c r="I45" s="9">
         <v>80.8</v>
       </c>
-      <c r="H45" s="9">
+      <c r="J45" s="9">
         <v>80.8</v>
       </c>
-      <c r="I45" s="9">
+      <c r="K45" s="9">
         <v>81.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="5">
+      <c r="E46" s="5">
         <v>83.5</v>
       </c>
-      <c r="D46" s="5">
+      <c r="F46" s="5">
         <v>84.4</v>
       </c>
-      <c r="E46" s="5">
+      <c r="G46" s="5">
         <v>85.2</v>
       </c>
-      <c r="F46" s="7">
+      <c r="H46" s="7">
         <v>77.400000000000006</v>
       </c>
-      <c r="G46" s="10">
+      <c r="I46" s="10">
         <v>76.400000000000006</v>
       </c>
-      <c r="H46" s="9">
+      <c r="J46" s="9">
         <v>77.599999999999994</v>
       </c>
-      <c r="I46" s="9">
+      <c r="K46" s="9">
         <v>79.3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="1">
+      <c r="E47" s="1">
         <v>84.5</v>
       </c>
-      <c r="D47" s="1">
+      <c r="F47" s="1">
         <v>84.9</v>
       </c>
-      <c r="E47" s="1">
+      <c r="G47" s="1">
         <v>85.5</v>
       </c>
-      <c r="F47" s="7">
+      <c r="H47" s="7">
         <v>78.099999999999994</v>
       </c>
-      <c r="G47" s="10">
+      <c r="I47" s="10">
         <v>77.900000000000006</v>
       </c>
-      <c r="H47" s="10">
+      <c r="J47" s="10">
         <v>77.900000000000006</v>
       </c>
-      <c r="I47" s="8">
+      <c r="K47" s="8">
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="5">
+      <c r="E48" s="5">
         <v>84.7</v>
       </c>
-      <c r="D48" s="5">
+      <c r="F48" s="5">
         <v>85.2</v>
       </c>
-      <c r="E48" s="5">
+      <c r="G48" s="5">
         <v>85.5</v>
       </c>
-      <c r="F48" s="7">
+      <c r="H48" s="7">
         <v>78.900000000000006</v>
       </c>
-      <c r="G48" s="11">
+      <c r="I48" s="11">
         <v>61.8</v>
       </c>
-      <c r="H48" s="8">
+      <c r="J48" s="8">
         <v>78.900000000000006</v>
       </c>
-      <c r="I48" s="9">
+      <c r="K48" s="9">
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="5">
+      <c r="E49" s="5">
         <v>84.6</v>
       </c>
-      <c r="D49" s="5">
+      <c r="F49" s="5">
         <v>85.1</v>
       </c>
-      <c r="E49" s="5">
+      <c r="G49" s="5">
         <v>87</v>
       </c>
-      <c r="F49" s="7">
+      <c r="H49" s="7">
         <v>79.900000000000006</v>
       </c>
-      <c r="G49" s="9">
+      <c r="I49" s="9">
         <v>81.3</v>
       </c>
-      <c r="H49" s="9">
+      <c r="J49" s="9">
         <v>81</v>
       </c>
-      <c r="I49" s="9">
+      <c r="K49" s="9">
         <v>83.1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="4">
+      <c r="E50" s="4">
         <v>86.3</v>
       </c>
-      <c r="D50" s="4">
+      <c r="F50" s="4">
         <v>86.1</v>
       </c>
-      <c r="E50" s="4">
+      <c r="G50" s="4">
         <v>87.1</v>
       </c>
-      <c r="F50" s="7">
+      <c r="H50" s="7">
         <v>79.7</v>
       </c>
-      <c r="G50" s="10">
+      <c r="I50" s="10">
         <v>79</v>
       </c>
-      <c r="H50" s="9">
+      <c r="J50" s="9">
         <v>80.2</v>
       </c>
-      <c r="I50" s="9">
+      <c r="K50" s="9">
         <v>81.7</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="1">
+      <c r="E51" s="1">
         <v>83.2</v>
       </c>
-      <c r="D51" s="1">
+      <c r="F51" s="1">
         <v>84.3</v>
       </c>
-      <c r="E51" s="1">
+      <c r="G51" s="1">
         <v>85.1</v>
       </c>
-      <c r="F51" s="7">
+      <c r="H51" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G51" s="9">
+      <c r="I51" s="9">
         <v>79.8</v>
       </c>
-      <c r="H51" s="9">
+      <c r="J51" s="9">
         <v>79.8</v>
       </c>
-      <c r="I51" s="9">
+      <c r="K51" s="9">
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="1">
+      <c r="E52" s="1">
         <v>86.3</v>
       </c>
-      <c r="D52" s="1">
+      <c r="F52" s="1">
         <v>85.8</v>
       </c>
-      <c r="E52" s="1">
+      <c r="G52" s="1">
         <v>87.2</v>
       </c>
-      <c r="F52" s="7">
+      <c r="H52" s="7">
         <v>81</v>
       </c>
-      <c r="G52" s="10">
+      <c r="I52" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="H52" s="10">
+      <c r="J52" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="I52" s="9">
+      <c r="K52" s="9">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="5">
+      <c r="E53" s="5">
         <v>84.9</v>
       </c>
-      <c r="D53" s="5">
+      <c r="F53" s="5">
         <v>85.2</v>
       </c>
-      <c r="E53" s="5">
+      <c r="G53" s="5">
         <v>85.8</v>
       </c>
-      <c r="F53" s="7">
+      <c r="H53" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G53" s="11">
+      <c r="I53" s="11">
         <v>7.8</v>
       </c>
-      <c r="H53" s="10">
+      <c r="J53" s="10">
         <v>78.900000000000006</v>
       </c>
-      <c r="I53" s="9">
+      <c r="K53" s="9">
         <v>83.2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="5">
+      <c r="E54" s="5">
         <v>83</v>
       </c>
-      <c r="D54" s="5">
+      <c r="F54" s="5">
         <v>82.9</v>
       </c>
-      <c r="E54" s="5">
+      <c r="G54" s="5">
         <v>83.8</v>
       </c>
-      <c r="F54" s="7">
+      <c r="H54" s="7">
         <v>75.7</v>
       </c>
-      <c r="G54" s="11">
+      <c r="I54" s="11">
         <v>14.8</v>
       </c>
-      <c r="H54" s="9">
+      <c r="J54" s="9">
         <v>77.099999999999994</v>
       </c>
-      <c r="I54" s="9">
+      <c r="K54" s="9">
         <v>80.2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C55">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E55">
         <f>AVERAGE(Tabla134789[XLM-R Full])</f>
         <v>85.050980392156859</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <f>AVERAGE(Tabla134789[mT5 T2T Full])</f>
         <v>85.21960784313724</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <f>AVERAGE(Tabla134789[mT5 Enc Full])</f>
         <v>85.974509803921578</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <f>AVERAGE(Tabla134789[RASA])</f>
         <v>79.464705882352931</v>
       </c>
-      <c r="G55">
-        <f>AVERAGE(Tabla134789[neural utt])</f>
+      <c r="I55">
+        <f>AVERAGE(Tabla134789[Neural 1])</f>
         <v>74.725490196078454</v>
       </c>
-      <c r="H55">
-        <f>AVERAGE(Tabla134789[neural utt processor])</f>
+      <c r="J55">
+        <f>AVERAGE(Tabla134789[Neural 2])</f>
         <v>79.976470588235301</v>
       </c>
-      <c r="I55">
-        <f>AVERAGE(Tabla134789[neural utt ngrams])</f>
+      <c r="K55">
+        <f>AVERAGE(Tabla134789[Neural 3])</f>
         <v>81.545098039215674</v>
       </c>
     </row>
@@ -6862,11 +6855,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3222743-8861-41E8-8793-36D717CAFB85}">
-  <dimension ref="A3:J55"/>
+  <dimension ref="C3:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I20" sqref="I20"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6881,1701 +6874,1701 @@
     <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>107</v>
       </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" t="s">
-        <v>110</v>
-      </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>85.6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>86</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>86.9</v>
       </c>
-      <c r="F4" s="7">
+      <c r="H4" s="7">
         <v>81</v>
       </c>
-      <c r="G4" s="10">
+      <c r="I4" s="10">
         <v>80.900000000000006</v>
       </c>
-      <c r="H4" s="10">
+      <c r="J4" s="10">
         <v>80.900000000000006</v>
       </c>
-      <c r="I4" s="9">
+      <c r="K4" s="9">
         <v>82.4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>85.9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>81.7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>82.7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>84.2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="H5" s="7">
         <v>77.3</v>
       </c>
-      <c r="G5" s="13">
+      <c r="I5" s="13">
         <v>77.400000000000006</v>
       </c>
-      <c r="H5" s="13">
+      <c r="J5" s="13">
         <v>77.400000000000006</v>
       </c>
-      <c r="I5" s="8">
+      <c r="K5" s="8">
         <v>77.3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="4">
+      <c r="E6" s="4">
         <v>80.7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="F6" s="4">
         <v>81.8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="4">
         <v>82.2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="H6" s="7">
         <v>74.400000000000006</v>
       </c>
-      <c r="G6" s="9">
+      <c r="I6" s="9">
         <v>76</v>
       </c>
-      <c r="H6" s="9">
+      <c r="J6" s="9">
         <v>76.2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="K6" s="9">
         <v>77.5</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>82.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="5">
+      <c r="E7" s="5">
         <v>86.2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="F7" s="5">
         <v>86.2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>86.4</v>
       </c>
-      <c r="F7" s="7">
+      <c r="H7" s="7">
         <v>82.1</v>
       </c>
-      <c r="G7" s="10">
+      <c r="I7" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="H7" s="10">
+      <c r="J7" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="I7" s="9">
+      <c r="K7" s="9">
         <v>82.3</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>84.1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>84.8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>85.8</v>
       </c>
-      <c r="F8" s="7">
+      <c r="H8" s="7">
         <v>77.7</v>
       </c>
-      <c r="G8" s="9">
+      <c r="I8" s="9">
         <v>78.900000000000006</v>
       </c>
-      <c r="H8" s="9">
+      <c r="J8" s="9">
         <v>79.3</v>
       </c>
-      <c r="I8" s="9">
+      <c r="K8" s="9">
         <v>81.099999999999994</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>85.1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>82.6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>83.7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>84.9</v>
       </c>
-      <c r="F9" s="7">
+      <c r="H9" s="7">
         <v>81.7</v>
       </c>
-      <c r="G9" s="10">
+      <c r="I9" s="10">
         <v>81.099999999999994</v>
       </c>
-      <c r="H9" s="10">
+      <c r="J9" s="10">
         <v>81.099999999999994</v>
       </c>
-      <c r="I9" s="9">
+      <c r="K9" s="9">
         <v>82.3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>85.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4">
+      <c r="E10" s="4">
         <v>86.9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="F10" s="4">
         <v>87.5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="G10" s="4">
         <v>88</v>
       </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
         <v>81.7</v>
       </c>
-      <c r="G10" s="10">
+      <c r="I10" s="10">
         <v>80.900000000000006</v>
       </c>
-      <c r="H10" s="9">
+      <c r="J10" s="9">
         <v>82</v>
       </c>
-      <c r="I10" s="9">
+      <c r="K10" s="9">
         <v>83.8</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>86.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="4">
+      <c r="E11" s="4">
         <v>85.7</v>
       </c>
-      <c r="D11" s="4">
+      <c r="F11" s="4">
         <v>86.2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="G11" s="4">
         <v>86.8</v>
       </c>
-      <c r="F11" s="7">
+      <c r="H11" s="7">
         <v>78.8</v>
       </c>
-      <c r="G11" s="9">
+      <c r="I11" s="9">
         <v>79.2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="J11" s="9">
         <v>79.900000000000006</v>
       </c>
-      <c r="I11" s="9">
+      <c r="K11" s="9">
         <v>80.599999999999994</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>84.6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="4">
+      <c r="E12" s="4">
         <v>86.2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="F12" s="4">
         <v>85.8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="G12" s="4">
         <v>86.6</v>
       </c>
-      <c r="F12" s="7">
+      <c r="H12" s="7">
         <v>80.3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="I12" s="8">
         <v>80.3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="J12" s="9">
         <v>81.599999999999994</v>
       </c>
-      <c r="I12" s="9">
+      <c r="K12" s="9">
         <v>82.9</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <v>86.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="4">
+      <c r="E13" s="4">
         <v>88.3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="F13" s="4">
         <v>87.9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="G13" s="4">
         <v>89</v>
       </c>
-      <c r="F13" s="7">
+      <c r="H13" s="7">
         <v>81.400000000000006</v>
       </c>
-      <c r="G13" s="9">
+      <c r="I13" s="9">
         <v>83.3</v>
       </c>
-      <c r="H13" s="9">
+      <c r="J13" s="9">
         <v>82.9</v>
       </c>
-      <c r="I13" s="9">
+      <c r="K13" s="9">
         <v>84.5</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <v>87.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="4">
+      <c r="E14" s="4">
         <v>86.9</v>
       </c>
-      <c r="D14" s="4">
+      <c r="F14" s="4">
         <v>86.7</v>
       </c>
-      <c r="E14" s="4">
+      <c r="G14" s="4">
         <v>86.8</v>
       </c>
-      <c r="F14" s="7">
+      <c r="H14" s="7">
         <v>80.400000000000006</v>
       </c>
-      <c r="G14" s="9">
+      <c r="I14" s="9">
         <v>81.3</v>
       </c>
-      <c r="H14" s="9">
+      <c r="J14" s="9">
         <v>81.099999999999994</v>
       </c>
-      <c r="I14" s="9">
+      <c r="K14" s="9">
         <v>83.1</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="5">
+      <c r="E15" s="5">
         <v>87</v>
       </c>
-      <c r="D15" s="5">
+      <c r="F15" s="5">
         <v>86.3</v>
       </c>
-      <c r="E15" s="5">
+      <c r="G15" s="5">
         <v>87.2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="H15" s="7">
         <v>81.7</v>
       </c>
-      <c r="G15" s="9">
+      <c r="I15" s="9">
         <v>83</v>
       </c>
-      <c r="H15" s="9">
+      <c r="J15" s="9">
         <v>83</v>
       </c>
-      <c r="I15" s="9">
+      <c r="K15" s="9">
         <v>83.7</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="2">
         <v>86.7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="4">
+      <c r="E16" s="4">
         <v>85.5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="F16" s="4">
         <v>85.3</v>
       </c>
-      <c r="E16" s="4">
+      <c r="G16" s="4">
         <v>86.7</v>
       </c>
-      <c r="F16" s="7">
+      <c r="H16" s="7">
         <v>80.8</v>
       </c>
-      <c r="G16" s="10">
+      <c r="I16" s="10">
         <v>78.099999999999994</v>
       </c>
-      <c r="H16" s="10">
+      <c r="J16" s="10">
         <v>80.099999999999994</v>
       </c>
-      <c r="I16" s="9">
+      <c r="K16" s="9">
         <v>81</v>
       </c>
-      <c r="J16" s="2">
+      <c r="L16" s="2">
         <v>84.6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4">
+      <c r="E17" s="4">
         <v>86.3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="F17" s="4">
         <v>86.9</v>
       </c>
-      <c r="E17" s="4">
+      <c r="G17" s="4">
         <v>87.2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="H17" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G17" s="9">
+      <c r="I17" s="9">
         <v>81.599999999999994</v>
       </c>
-      <c r="H17" s="9">
+      <c r="J17" s="9">
         <v>81.7</v>
       </c>
-      <c r="I17" s="9">
+      <c r="K17" s="9">
         <v>83.5</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="2">
         <v>85.7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="1">
+      <c r="E18" s="1">
         <v>85.9</v>
       </c>
-      <c r="D18" s="1">
+      <c r="F18" s="1">
         <v>84.6</v>
       </c>
-      <c r="E18" s="1">
+      <c r="G18" s="1">
         <v>86.2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="H18" s="7">
         <v>80.900000000000006</v>
       </c>
-      <c r="G18" s="9">
+      <c r="I18" s="9">
         <v>81</v>
       </c>
-      <c r="H18" s="9">
+      <c r="J18" s="9">
         <v>81</v>
       </c>
-      <c r="I18" s="9">
+      <c r="K18" s="9">
         <v>81.599999999999994</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <v>84.8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="4">
+      <c r="E19" s="4">
         <v>85.8</v>
       </c>
-      <c r="D19" s="4">
+      <c r="F19" s="4">
         <v>85.6</v>
       </c>
-      <c r="E19" s="4">
+      <c r="G19" s="4">
         <v>86.2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <v>78.900000000000006</v>
       </c>
-      <c r="G19" s="9">
+      <c r="I19" s="9">
         <v>80.5</v>
       </c>
-      <c r="H19" s="9">
+      <c r="J19" s="9">
         <v>80.400000000000006</v>
       </c>
-      <c r="I19" s="9">
+      <c r="K19" s="9">
         <v>82.2</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <v>85.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="4">
+      <c r="E20" s="4">
         <v>86.2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="F20" s="4">
         <v>85.4</v>
       </c>
-      <c r="E20" s="4">
+      <c r="G20" s="4">
         <v>86.9</v>
       </c>
-      <c r="F20" s="7">
+      <c r="H20" s="7">
         <v>79.5</v>
       </c>
-      <c r="G20" s="10">
+      <c r="I20" s="10">
         <v>78.5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="J20" s="9">
         <v>80.7</v>
       </c>
-      <c r="I20" s="9">
+      <c r="K20" s="9">
         <v>82.7</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <v>85.7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="4">
+      <c r="E21" s="4">
         <v>84.4</v>
       </c>
-      <c r="D21" s="4">
+      <c r="F21" s="4">
         <v>84.5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="G21" s="4">
         <v>85.6</v>
       </c>
-      <c r="F21" s="7">
+      <c r="H21" s="7">
         <v>80.3</v>
       </c>
-      <c r="G21" s="10">
+      <c r="I21" s="10">
         <v>79.2</v>
       </c>
-      <c r="H21" s="10">
+      <c r="J21" s="10">
         <v>78.8</v>
       </c>
-      <c r="I21" s="10">
+      <c r="K21" s="10">
         <v>80.099999999999994</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="2">
         <v>84.3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="4">
+      <c r="E22" s="4">
         <v>87.1</v>
       </c>
-      <c r="D22" s="4">
+      <c r="F22" s="4">
         <v>87</v>
       </c>
-      <c r="E22" s="4">
+      <c r="G22" s="4">
         <v>86.8</v>
       </c>
-      <c r="F22" s="7">
+      <c r="H22" s="7">
         <v>81.3</v>
       </c>
-      <c r="G22" s="9">
+      <c r="I22" s="9">
         <v>82.6</v>
       </c>
-      <c r="H22" s="9">
+      <c r="J22" s="9">
         <v>82.7</v>
       </c>
-      <c r="I22" s="9">
+      <c r="K22" s="9">
         <v>84.7</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="2">
         <v>87.1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="1">
+      <c r="E23" s="1">
         <v>85.3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <v>85.3</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>85.9</v>
       </c>
-      <c r="F23" s="7">
+      <c r="H23" s="7">
         <v>80.599999999999994</v>
       </c>
-      <c r="G23" s="10">
+      <c r="I23" s="10">
         <v>79.099999999999994</v>
       </c>
-      <c r="H23" s="10">
+      <c r="J23" s="10">
         <v>79.099999999999994</v>
       </c>
-      <c r="I23" s="9">
+      <c r="K23" s="9">
         <v>80.7</v>
       </c>
-      <c r="J23" s="2">
+      <c r="L23" s="2">
         <v>84.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="4">
+      <c r="E24" s="4">
         <v>83.8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="F24" s="4">
         <v>81.099999999999994</v>
       </c>
-      <c r="E24" s="4">
+      <c r="G24" s="4">
         <v>81.599999999999994</v>
       </c>
-      <c r="F24" s="7">
+      <c r="H24" s="7">
         <v>81.599999999999994</v>
       </c>
-      <c r="G24" s="9">
+      <c r="I24" s="9">
         <v>82.6</v>
       </c>
-      <c r="H24" s="9">
+      <c r="J24" s="9">
         <v>82.7</v>
       </c>
-      <c r="I24" s="9">
+      <c r="K24" s="9">
         <v>83.8</v>
       </c>
-      <c r="J24" s="2">
+      <c r="L24" s="2">
         <v>86.4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="5">
+      <c r="E25" s="5">
         <v>83.9</v>
       </c>
-      <c r="D25" s="5">
+      <c r="F25" s="5">
         <v>83.5</v>
       </c>
-      <c r="E25" s="5">
+      <c r="G25" s="5">
         <v>85.8</v>
       </c>
-      <c r="F25" s="7">
+      <c r="H25" s="7">
         <v>74.099999999999994</v>
       </c>
-      <c r="G25" s="11">
+      <c r="I25" s="11">
         <v>10.4</v>
       </c>
-      <c r="H25" s="9">
+      <c r="J25" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="I25" s="9">
+      <c r="K25" s="9">
         <v>82.8</v>
       </c>
-      <c r="J25" s="2">
+      <c r="L25" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="1">
+      <c r="E26" s="1">
         <v>82.9</v>
       </c>
-      <c r="D26" s="1">
+      <c r="F26" s="1">
         <v>84.5</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>85.3</v>
       </c>
-      <c r="F26" s="7">
+      <c r="H26" s="7">
         <v>80</v>
       </c>
-      <c r="G26" s="9">
+      <c r="I26" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="H26" s="9">
+      <c r="J26" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="I26" s="9">
+      <c r="K26" s="9">
         <v>81.5</v>
       </c>
-      <c r="J26" s="2">
+      <c r="L26" s="2">
         <v>84.6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1">
+      <c r="E27" s="1">
         <v>80.3</v>
       </c>
-      <c r="D27" s="1">
+      <c r="F27" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>81.3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="H27" s="7">
         <v>74</v>
       </c>
-      <c r="G27" s="9">
+      <c r="I27" s="9">
         <v>74.2</v>
       </c>
-      <c r="H27" s="9">
+      <c r="J27" s="9">
         <v>74.2</v>
       </c>
-      <c r="I27" s="9">
+      <c r="K27" s="9">
         <v>74.599999999999994</v>
       </c>
-      <c r="J27" s="2">
+      <c r="L27" s="2">
         <v>79.2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="5">
+      <c r="E28" s="5">
         <v>77.2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="F28" s="5">
         <v>79</v>
       </c>
-      <c r="E28" s="5">
+      <c r="G28" s="5">
         <v>79.099999999999994</v>
       </c>
-      <c r="F28" s="7">
+      <c r="H28" s="7">
         <v>70.900000000000006</v>
       </c>
-      <c r="G28" s="11">
+      <c r="I28" s="11">
         <v>55.6</v>
       </c>
-      <c r="H28" s="9">
+      <c r="J28" s="9">
         <v>71.7</v>
       </c>
-      <c r="I28" s="9">
+      <c r="K28" s="9">
         <v>74.099999999999994</v>
       </c>
-      <c r="J28" s="2">
+      <c r="L28" s="2">
         <v>77.3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="1">
+      <c r="E29" s="1">
         <v>84</v>
       </c>
-      <c r="D29" s="1">
+      <c r="F29" s="1">
         <v>84.9</v>
       </c>
-      <c r="E29" s="1">
+      <c r="G29" s="1">
         <v>84.9</v>
       </c>
-      <c r="F29" s="7">
+      <c r="H29" s="7">
         <v>78.599999999999994</v>
       </c>
-      <c r="G29" s="10">
+      <c r="I29" s="10">
         <v>77.599999999999994</v>
       </c>
-      <c r="H29" s="10">
+      <c r="J29" s="10">
         <v>77.599999999999994</v>
       </c>
-      <c r="I29" s="9">
+      <c r="K29" s="9">
         <v>78.900000000000006</v>
       </c>
-      <c r="J29" s="2">
+      <c r="L29" s="2">
         <v>83.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="5">
+      <c r="E30" s="5">
         <v>86.5</v>
       </c>
-      <c r="D30" s="5">
+      <c r="F30" s="5">
         <v>86.1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="G30" s="5">
         <v>86.4</v>
       </c>
-      <c r="F30" s="7">
+      <c r="H30" s="7">
         <v>77.2</v>
       </c>
-      <c r="G30" s="9">
+      <c r="I30" s="9">
         <v>79.7</v>
       </c>
-      <c r="H30" s="9">
+      <c r="J30" s="9">
         <v>79.7</v>
       </c>
-      <c r="I30" s="9">
+      <c r="K30" s="9">
         <v>82.5</v>
       </c>
-      <c r="J30" s="2">
+      <c r="L30" s="2">
         <v>85.6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="1">
+      <c r="E31" s="1">
         <v>86.1</v>
       </c>
-      <c r="D31" s="1">
+      <c r="F31" s="1">
         <v>85.2</v>
       </c>
-      <c r="E31" s="1">
+      <c r="G31" s="1">
         <v>86.6</v>
       </c>
-      <c r="F31" s="7">
+      <c r="H31" s="7">
         <v>81</v>
       </c>
-      <c r="G31" s="10">
+      <c r="I31" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="H31" s="10">
+      <c r="J31" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="I31" s="8">
+      <c r="K31" s="8">
         <v>81</v>
       </c>
-      <c r="J31" s="2">
+      <c r="L31" s="2">
         <v>84.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="1">
+      <c r="E32" s="1">
         <v>85.1</v>
       </c>
-      <c r="D32" s="1">
+      <c r="F32" s="1">
         <v>86</v>
       </c>
-      <c r="E32" s="1">
+      <c r="G32" s="1">
         <v>86.5</v>
       </c>
-      <c r="F32" s="7">
+      <c r="H32" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G32" s="10">
+      <c r="I32" s="10">
         <v>77.599999999999994</v>
       </c>
-      <c r="H32" s="10">
+      <c r="J32" s="10">
         <v>77.599999999999994</v>
       </c>
-      <c r="I32" s="10">
+      <c r="K32" s="10">
         <v>78.400000000000006</v>
       </c>
-      <c r="J32" s="2">
+      <c r="L32" s="2">
         <v>82.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="1">
+      <c r="E33" s="1">
         <v>84.3</v>
       </c>
-      <c r="D33" s="1">
+      <c r="F33" s="1">
         <v>84.9</v>
       </c>
-      <c r="E33" s="1">
+      <c r="G33" s="1">
         <v>86</v>
       </c>
-      <c r="F33" s="7">
+      <c r="H33" s="7">
         <v>79.8</v>
       </c>
-      <c r="G33" s="10">
+      <c r="I33" s="10">
         <v>79.599999999999994</v>
       </c>
-      <c r="H33" s="10">
+      <c r="J33" s="10">
         <v>79.599999999999994</v>
       </c>
-      <c r="I33" s="9">
+      <c r="K33" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="J33" s="2">
+      <c r="L33" s="2">
         <v>85.1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="5">
+      <c r="E34" s="5">
         <v>86.1</v>
       </c>
-      <c r="D34" s="5">
+      <c r="F34" s="5">
         <v>86.8</v>
       </c>
-      <c r="E34" s="5">
+      <c r="G34" s="5">
         <v>86.9</v>
       </c>
-      <c r="F34" s="7">
+      <c r="H34" s="7">
         <v>82</v>
       </c>
-      <c r="G34" s="9">
+      <c r="I34" s="9">
         <v>82.4</v>
       </c>
-      <c r="H34" s="8">
+      <c r="J34" s="8">
         <v>82</v>
       </c>
-      <c r="I34" s="9">
+      <c r="K34" s="9">
         <v>84</v>
       </c>
-      <c r="J34" s="2">
+      <c r="L34" s="2">
         <v>87.1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="5">
+      <c r="E35" s="5">
         <v>83.6</v>
       </c>
-      <c r="D35" s="5">
+      <c r="F35" s="5">
         <v>84.6</v>
       </c>
-      <c r="E35" s="5">
+      <c r="G35" s="5">
         <v>85.2</v>
       </c>
-      <c r="F35" s="7">
+      <c r="H35" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G35" s="11">
+      <c r="I35" s="11">
         <v>62.2</v>
       </c>
-      <c r="H35" s="10">
+      <c r="J35" s="10">
         <v>78</v>
       </c>
-      <c r="I35" s="9">
+      <c r="K35" s="9">
         <v>81.2</v>
       </c>
-      <c r="J35" s="2">
+      <c r="L35" s="2">
         <v>83.7</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="4">
+      <c r="E36" s="4">
         <v>87.3</v>
       </c>
-      <c r="D36" s="4">
+      <c r="F36" s="4">
         <v>87.6</v>
       </c>
-      <c r="E36" s="4">
+      <c r="G36" s="4">
         <v>87.7</v>
       </c>
-      <c r="F36" s="7">
+      <c r="H36" s="7">
         <v>81</v>
       </c>
-      <c r="G36" s="10">
+      <c r="I36" s="10">
         <v>79.599999999999994</v>
       </c>
-      <c r="H36" s="10">
+      <c r="J36" s="10">
         <v>80.5</v>
       </c>
-      <c r="I36" s="9">
+      <c r="K36" s="9">
         <v>82.1</v>
       </c>
-      <c r="J36" s="2">
+      <c r="L36" s="2">
         <v>85.9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="4">
+      <c r="E37" s="4">
         <v>86.8</v>
       </c>
-      <c r="D37" s="4">
+      <c r="F37" s="4">
         <v>87.2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="G37" s="4">
         <v>87.6</v>
       </c>
-      <c r="F37" s="7">
+      <c r="H37" s="7">
         <v>81.099999999999994</v>
       </c>
-      <c r="G37" s="9">
+      <c r="I37" s="9">
         <v>81.900000000000006</v>
       </c>
-      <c r="H37" s="9">
+      <c r="J37" s="9">
         <v>81.3</v>
       </c>
-      <c r="I37" s="9">
+      <c r="K37" s="9">
         <v>83.2</v>
       </c>
-      <c r="J37" s="2">
+      <c r="L37" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="5">
+      <c r="E38" s="5">
         <v>85.8</v>
       </c>
-      <c r="D38" s="5">
+      <c r="F38" s="5">
         <v>86.3</v>
       </c>
-      <c r="E38" s="5">
+      <c r="G38" s="5">
         <v>87.1</v>
       </c>
-      <c r="F38" s="7">
+      <c r="H38" s="7">
         <v>80.599999999999994</v>
       </c>
-      <c r="G38" s="9">
+      <c r="I38" s="9">
         <v>81</v>
       </c>
-      <c r="H38" s="9">
+      <c r="J38" s="9">
         <v>81.7</v>
       </c>
-      <c r="I38" s="9">
+      <c r="K38" s="9">
         <v>83</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>86.6</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="4">
+      <c r="E39" s="4">
         <v>86.7</v>
       </c>
-      <c r="D39" s="4">
+      <c r="F39" s="4">
         <v>86.7</v>
       </c>
-      <c r="E39" s="4">
+      <c r="G39" s="4">
         <v>86.9</v>
       </c>
-      <c r="F39" s="7">
+      <c r="H39" s="7">
         <v>80.8</v>
       </c>
-      <c r="G39" s="9">
+      <c r="I39" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="H39" s="9">
+      <c r="J39" s="9">
         <v>81.3</v>
       </c>
-      <c r="I39" s="9">
+      <c r="K39" s="9">
         <v>82.9</v>
       </c>
-      <c r="J39" s="2">
+      <c r="L39" s="2">
         <v>86.1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="4">
+      <c r="E40" s="4">
         <v>86.9</v>
       </c>
-      <c r="D40" s="4">
+      <c r="F40" s="4">
         <v>87.2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="G40" s="4">
         <v>87</v>
       </c>
-      <c r="F40" s="7">
+      <c r="H40" s="7">
         <v>80.2</v>
       </c>
-      <c r="G40" s="9">
+      <c r="I40" s="9">
         <v>81.400000000000006</v>
       </c>
-      <c r="H40" s="9">
+      <c r="J40" s="9">
         <v>82.7</v>
       </c>
-      <c r="I40" s="9">
+      <c r="K40" s="9">
         <v>83.2</v>
       </c>
-      <c r="J40" s="2">
+      <c r="L40" s="2">
         <v>86.2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="4">
+      <c r="E41" s="4">
         <v>87.2</v>
       </c>
-      <c r="D41" s="4">
+      <c r="F41" s="4">
         <v>87</v>
       </c>
-      <c r="E41" s="4">
+      <c r="G41" s="4">
         <v>86.8</v>
       </c>
-      <c r="F41" s="7">
+      <c r="H41" s="7">
         <v>80.400000000000006</v>
       </c>
-      <c r="G41" s="10">
+      <c r="I41" s="10">
         <v>80.099999999999994</v>
       </c>
-      <c r="H41" s="9">
+      <c r="J41" s="9">
         <v>82.1</v>
       </c>
-      <c r="I41" s="9">
+      <c r="K41" s="9">
         <v>83.3</v>
       </c>
-      <c r="J41" s="2">
+      <c r="L41" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="5">
+      <c r="E42" s="5">
         <v>86.3</v>
       </c>
-      <c r="D42" s="5">
+      <c r="F42" s="5">
         <v>85.9</v>
       </c>
-      <c r="E42" s="5">
+      <c r="G42" s="5">
         <v>86.8</v>
       </c>
-      <c r="F42" s="7">
+      <c r="H42" s="7">
         <v>79</v>
       </c>
-      <c r="G42" s="9">
+      <c r="I42" s="9">
         <v>79.400000000000006</v>
       </c>
-      <c r="H42" s="9">
+      <c r="J42" s="9">
         <v>81.099999999999994</v>
       </c>
-      <c r="I42" s="9">
+      <c r="K42" s="9">
         <v>81.5</v>
       </c>
-      <c r="J42" s="2">
+      <c r="L42" s="2">
         <v>85.6</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" s="1">
-        <v>86.4</v>
-      </c>
-      <c r="D43" s="1">
-        <v>85.9</v>
       </c>
       <c r="E43" s="1">
         <v>86.4</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="G43" s="1">
+        <v>86.4</v>
+      </c>
+      <c r="H43" s="7">
         <v>80.2</v>
       </c>
-      <c r="G43" s="9">
+      <c r="I43" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="H43" s="9">
+      <c r="J43" s="9">
         <v>80.900000000000006</v>
       </c>
-      <c r="I43" s="9">
+      <c r="K43" s="9">
         <v>82.3</v>
       </c>
-      <c r="J43" s="2">
+      <c r="L43" s="2">
         <v>85.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="4">
+      <c r="E44" s="4">
         <v>87.9</v>
       </c>
-      <c r="D44" s="4">
+      <c r="F44" s="4">
         <v>87.8</v>
       </c>
-      <c r="E44" s="4">
+      <c r="G44" s="4">
         <v>88.5</v>
       </c>
-      <c r="F44" s="7">
+      <c r="H44" s="7">
         <v>80.400000000000006</v>
       </c>
-      <c r="G44" s="9">
+      <c r="I44" s="9">
         <v>80.8</v>
       </c>
-      <c r="H44" s="9">
+      <c r="J44" s="9">
         <v>80.5</v>
       </c>
-      <c r="I44" s="9">
+      <c r="K44" s="9">
         <v>81.7</v>
       </c>
-      <c r="J44" s="2">
+      <c r="L44" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="1">
+      <c r="E45" s="1">
         <v>83.1</v>
       </c>
-      <c r="D45" s="1">
+      <c r="F45" s="1">
         <v>84</v>
       </c>
-      <c r="E45" s="1">
+      <c r="G45" s="1">
         <v>85.8</v>
       </c>
-      <c r="F45" s="7">
+      <c r="H45" s="7">
         <v>80.3</v>
       </c>
-      <c r="G45" s="9">
+      <c r="I45" s="9">
         <v>80.8</v>
       </c>
-      <c r="H45" s="9">
+      <c r="J45" s="9">
         <v>80.8</v>
       </c>
-      <c r="I45" s="9">
+      <c r="K45" s="9">
         <v>81.5</v>
       </c>
-      <c r="J45" s="2">
+      <c r="L45" s="2">
         <v>84.6</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="5">
+      <c r="E46" s="5">
         <v>83.5</v>
       </c>
-      <c r="D46" s="5">
+      <c r="F46" s="5">
         <v>84.4</v>
       </c>
-      <c r="E46" s="5">
+      <c r="G46" s="5">
         <v>85.2</v>
       </c>
-      <c r="F46" s="7">
+      <c r="H46" s="7">
         <v>77.400000000000006</v>
       </c>
-      <c r="G46" s="10">
+      <c r="I46" s="10">
         <v>76.400000000000006</v>
       </c>
-      <c r="H46" s="9">
+      <c r="J46" s="9">
         <v>77.599999999999994</v>
       </c>
-      <c r="I46" s="9">
+      <c r="K46" s="9">
         <v>79.3</v>
       </c>
-      <c r="J46" s="2">
+      <c r="L46" s="2">
         <v>83.3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="1">
+      <c r="E47" s="1">
         <v>84.5</v>
       </c>
-      <c r="D47" s="1">
+      <c r="F47" s="1">
         <v>84.9</v>
       </c>
-      <c r="E47" s="1">
+      <c r="G47" s="1">
         <v>85.5</v>
       </c>
-      <c r="F47" s="7">
+      <c r="H47" s="7">
         <v>78.099999999999994</v>
       </c>
-      <c r="G47" s="10">
+      <c r="I47" s="10">
         <v>77.900000000000006</v>
       </c>
-      <c r="H47" s="10">
+      <c r="J47" s="10">
         <v>77.900000000000006</v>
       </c>
-      <c r="I47" s="8">
+      <c r="K47" s="8">
         <v>78.099999999999994</v>
       </c>
-      <c r="J47" s="2">
+      <c r="L47" s="2">
         <v>82.8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="5">
+      <c r="E48" s="5">
         <v>84.7</v>
       </c>
-      <c r="D48" s="5">
+      <c r="F48" s="5">
         <v>85.2</v>
       </c>
-      <c r="E48" s="5">
+      <c r="G48" s="5">
         <v>85.5</v>
       </c>
-      <c r="F48" s="7">
+      <c r="H48" s="7">
         <v>78.900000000000006</v>
       </c>
-      <c r="G48" s="11">
+      <c r="I48" s="11">
         <v>61.8</v>
       </c>
-      <c r="H48" s="8">
+      <c r="J48" s="8">
         <v>78.900000000000006</v>
       </c>
-      <c r="I48" s="9">
+      <c r="K48" s="9">
         <v>81.400000000000006</v>
       </c>
-      <c r="J48" s="2">
+      <c r="L48" s="2">
         <v>83.5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="5">
+      <c r="E49" s="5">
         <v>84.6</v>
       </c>
-      <c r="D49" s="5">
+      <c r="F49" s="5">
         <v>85.1</v>
       </c>
-      <c r="E49" s="5">
+      <c r="G49" s="5">
         <v>87</v>
       </c>
-      <c r="F49" s="7">
+      <c r="H49" s="7">
         <v>79.900000000000006</v>
       </c>
-      <c r="G49" s="9">
+      <c r="I49" s="9">
         <v>81.3</v>
       </c>
-      <c r="H49" s="9">
+      <c r="J49" s="9">
         <v>81</v>
       </c>
-      <c r="I49" s="9">
+      <c r="K49" s="9">
         <v>83.1</v>
       </c>
-      <c r="J49" s="2">
+      <c r="L49" s="2">
         <v>86.5</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="4">
+      <c r="E50" s="4">
         <v>86.3</v>
       </c>
-      <c r="D50" s="4">
+      <c r="F50" s="4">
         <v>86.1</v>
       </c>
-      <c r="E50" s="4">
+      <c r="G50" s="4">
         <v>87.1</v>
       </c>
-      <c r="F50" s="7">
+      <c r="H50" s="7">
         <v>79.7</v>
       </c>
-      <c r="G50" s="10">
+      <c r="I50" s="10">
         <v>79</v>
       </c>
-      <c r="H50" s="9">
+      <c r="J50" s="9">
         <v>80.2</v>
       </c>
-      <c r="I50" s="9">
+      <c r="K50" s="9">
         <v>81.7</v>
       </c>
-      <c r="J50" s="2">
+      <c r="L50" s="2">
         <v>85.6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="1">
+      <c r="E51" s="1">
         <v>83.2</v>
       </c>
-      <c r="D51" s="1">
+      <c r="F51" s="1">
         <v>84.3</v>
       </c>
-      <c r="E51" s="1">
+      <c r="G51" s="1">
         <v>85.1</v>
       </c>
-      <c r="F51" s="7">
+      <c r="H51" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G51" s="9">
+      <c r="I51" s="9">
         <v>79.8</v>
       </c>
-      <c r="H51" s="9">
+      <c r="J51" s="9">
         <v>79.8</v>
       </c>
-      <c r="I51" s="9">
+      <c r="K51" s="9">
         <v>81.400000000000006</v>
       </c>
-      <c r="J51" s="2">
+      <c r="L51" s="2">
         <v>85.1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="1">
+      <c r="E52" s="1">
         <v>86.3</v>
       </c>
-      <c r="D52" s="1">
+      <c r="F52" s="1">
         <v>85.8</v>
       </c>
-      <c r="E52" s="1">
+      <c r="G52" s="1">
         <v>87.2</v>
       </c>
-      <c r="F52" s="7">
+      <c r="H52" s="7">
         <v>81</v>
       </c>
-      <c r="G52" s="10">
+      <c r="I52" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="H52" s="10">
+      <c r="J52" s="10">
         <v>79.900000000000006</v>
       </c>
-      <c r="I52" s="9">
+      <c r="K52" s="9">
         <v>84</v>
       </c>
-      <c r="J52" s="2">
+      <c r="L52" s="2">
         <v>86.7</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="5">
+      <c r="E53" s="5">
         <v>84.9</v>
       </c>
-      <c r="D53" s="5">
+      <c r="F53" s="5">
         <v>85.2</v>
       </c>
-      <c r="E53" s="5">
+      <c r="G53" s="5">
         <v>85.8</v>
       </c>
-      <c r="F53" s="7">
+      <c r="H53" s="7">
         <v>79.599999999999994</v>
       </c>
-      <c r="G53" s="11">
+      <c r="I53" s="11">
         <v>7.8</v>
       </c>
-      <c r="H53" s="10">
+      <c r="J53" s="10">
         <v>78.900000000000006</v>
       </c>
-      <c r="I53" s="9">
+      <c r="K53" s="9">
         <v>83.2</v>
       </c>
-      <c r="J53" s="2">
+      <c r="L53" s="2">
         <v>85.7</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="5">
+      <c r="E54" s="5">
         <v>83</v>
       </c>
-      <c r="D54" s="5">
+      <c r="F54" s="5">
         <v>82.9</v>
       </c>
-      <c r="E54" s="5">
+      <c r="G54" s="5">
         <v>83.8</v>
       </c>
-      <c r="F54" s="7">
+      <c r="H54" s="7">
         <v>75.7</v>
       </c>
-      <c r="G54" s="11">
+      <c r="I54" s="11">
         <v>14.8</v>
       </c>
-      <c r="H54" s="9">
+      <c r="J54" s="9">
         <v>77.099999999999994</v>
       </c>
-      <c r="I54" s="9">
+      <c r="K54" s="9">
         <v>80.2</v>
       </c>
-      <c r="J54" s="2">
+      <c r="L54" s="2">
         <v>82.6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C55">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E55">
         <f>AVERAGE(Tabla1347892[XLM-R Full])</f>
         <v>85.050980392156859</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <f>AVERAGE(Tabla1347892[mT5 T2T Full])</f>
         <v>85.21960784313724</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <f>AVERAGE(Tabla1347892[mT5 Enc Full])</f>
         <v>85.974509803921578</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <f>AVERAGE(Tabla1347892[RASA])</f>
         <v>79.464705882352931</v>
       </c>
-      <c r="G55">
-        <f>AVERAGE(Tabla1347892[neural utt])</f>
+      <c r="I55">
+        <f>AVERAGE(Tabla1347892[Neural 1])</f>
         <v>74.725490196078454</v>
       </c>
-      <c r="H55">
-        <f>AVERAGE(Tabla1347892[neural utt processor])</f>
+      <c r="J55">
+        <f>AVERAGE(Tabla1347892[Neural 2])</f>
         <v>79.976470588235301</v>
       </c>
-      <c r="I55">
-        <f>AVERAGE(Tabla1347892[neural utt ngrams])</f>
+      <c r="K55">
+        <f>AVERAGE(Tabla1347892[Neural 3])</f>
         <v>81.545098039215674</v>
       </c>
-      <c r="J55">
-        <f>AVERAGE(Tabla1347892[neural annot ngrams])</f>
+      <c r="L55">
+        <f>AVERAGE(Tabla1347892[Neural 4])</f>
         <v>84.941176470588218</v>
       </c>
     </row>
@@ -8592,8 +8585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB72D94-EBE1-4F42-AC3C-A2E7D3C1CC66}">
   <dimension ref="C3:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8603,21 +8596,21 @@
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
         <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -8631,7 +8624,7 @@
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -8645,7 +8638,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D6">
         <v>31</v>
@@ -8673,7 +8666,7 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D8">
         <v>105092</v>
@@ -8687,7 +8680,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9">
         <v>67134</v>
@@ -8701,7 +8694,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D10">
         <v>40446</v>
@@ -8715,10 +8708,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11">
-        <v>35575</v>
+        <v>117</v>
       </c>
       <c r="E11">
         <v>84.94</v>
